--- a/Inv Plan.xlsx
+++ b/Inv Plan.xlsx
@@ -160,7 +160,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,22 +278,22 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -607,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +612,7 @@
     <col min="4" max="5" width="17.42578125" style="21" customWidth="1"/>
     <col min="6" max="7" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="19.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -649,7 +643,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="21">
         <f>SUM(D6:D1048576)</f>
-        <v>40000000</v>
+        <v>31000000</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -665,7 +659,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="21">
         <f>SUM(E6:E1048576)</f>
-        <v>30000000</v>
+        <v>31000000</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -676,7 +670,7 @@
       </c>
       <c r="L3" s="20">
         <f>K10/F3</f>
-        <v>0.11749999999999999</v>
+        <v>6.5322580645161291E-2</v>
       </c>
       <c r="M3" s="15"/>
     </row>
@@ -693,7 +687,7 @@
       </c>
       <c r="L4" s="15">
         <f>SUM(L6:L10)/5</f>
-        <v>4.8062416613381731E-2</v>
+        <v>3.9140483527879869E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
@@ -709,25 +703,25 @@
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -765,15 +759,15 @@
         <f t="shared" ref="H6:H37" si="0">F6*F$1</f>
         <v>300000</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="38">
         <f>F6*0.05</f>
         <v>250000</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="27">
         <f>H6</f>
         <v>300000</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="27">
         <f>I6</f>
         <v>250000</v>
       </c>
@@ -815,14 +809,14 @@
         <f t="shared" si="0"/>
         <v>618000</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="38">
         <v>315000</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <f t="shared" ref="J7:J38" si="2">J6+H7</f>
         <v>918000</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <f t="shared" ref="K7:K38" si="3">K6+I7</f>
         <v>565000</v>
       </c>
@@ -864,14 +858,14 @@
         <f t="shared" si="0"/>
         <v>955080</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="38">
         <v>1200000</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <f t="shared" si="2"/>
         <v>1873080</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <f t="shared" si="3"/>
         <v>1765000</v>
       </c>
@@ -913,14 +907,14 @@
         <f t="shared" si="0"/>
         <v>1312384.8</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="38">
         <v>1860000</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <f t="shared" si="2"/>
         <v>3185464.8</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <f t="shared" si="3"/>
         <v>3625000</v>
       </c>
@@ -937,100 +931,102 @@
         <v>554100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="D10" s="22">
-        <v>3000000</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="23">
         <v>10000000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="E10" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="F10" s="23">
         <f t="shared" si="6"/>
-        <v>26185464.800000001</v>
-      </c>
-      <c r="G10" s="26">
+        <v>33185464.800000001</v>
+      </c>
+      <c r="G10" s="25">
         <f t="shared" si="7"/>
         <v>33625000</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <f>F10*F$1</f>
-        <v>1571127.888</v>
-      </c>
-      <c r="I10" s="22">
-        <v>-100000</v>
+        <v>1991127.888</v>
+      </c>
+      <c r="I10" s="38">
+        <v>-1600000</v>
       </c>
       <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>4756592.6880000001</v>
+        <v>5176592.6880000001</v>
       </c>
       <c r="K10" s="29">
         <f t="shared" si="3"/>
-        <v>3525000</v>
-      </c>
-      <c r="L10" s="16">
+        <v>2025000</v>
+      </c>
+      <c r="L10" s="17">
         <f t="shared" si="1"/>
-        <v>-2.9739776951672862E-3</v>
-      </c>
-      <c r="M10" s="12" t="str">
+        <v>-4.7583643122676579E-2</v>
+      </c>
+      <c r="M10" s="13" t="str">
         <f t="shared" si="4"/>
         <v>FALSE</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="23">
         <f t="shared" si="5"/>
-        <v>-2117500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>-3617500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="D11" s="21">
-        <v>3000000</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="D11" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="F11" s="22">
         <f t="shared" si="6"/>
-        <v>30756592.688000001</v>
-      </c>
-      <c r="G11" s="25">
+        <v>36176592.687999994</v>
+      </c>
+      <c r="G11" s="26">
         <f t="shared" si="7"/>
-        <v>33525000</v>
-      </c>
-      <c r="H11" s="21">
+        <v>33025000</v>
+      </c>
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
-        <v>1845395.56128</v>
-      </c>
-      <c r="I11" s="21">
-        <f>G11*F$1</f>
-        <v>2011500</v>
+        <v>2170595.5612799996</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
       </c>
       <c r="J11" s="28">
         <f t="shared" si="2"/>
-        <v>6601988.2492800001</v>
+        <v>7347188.2492800001</v>
       </c>
       <c r="K11" s="28">
         <f t="shared" si="3"/>
-        <v>5536500</v>
-      </c>
-      <c r="L11" s="15">
+        <v>2025000</v>
+      </c>
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="M11" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>TRUE</v>
-      </c>
-      <c r="N11" s="21">
+        <v>FALSE</v>
+      </c>
+      <c r="N11" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1981500</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1040,32 +1036,29 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="D12" s="21">
-        <v>3000000</v>
-      </c>
       <c r="F12" s="23">
         <f t="shared" si="6"/>
-        <v>35601988.249279998</v>
+        <v>38347188.249279991</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="7"/>
-        <v>35536500</v>
+        <v>33025000</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
-        <v>2136119.2949567996</v>
+        <v>2300831.2949567991</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" ref="I12:I74" si="8">G12*F$1</f>
-        <v>2132190</v>
-      </c>
-      <c r="J12" s="28">
+        <v>1981500</v>
+      </c>
+      <c r="J12" s="27">
         <f t="shared" si="2"/>
-        <v>8738107.5442367997</v>
-      </c>
-      <c r="K12" s="28">
+        <v>9648019.5442367997</v>
+      </c>
+      <c r="K12" s="27">
         <f t="shared" si="3"/>
-        <v>7668690</v>
+        <v>4006500</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="1"/>
@@ -1087,32 +1080,29 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="D13" s="21">
-        <v>3000000</v>
-      </c>
       <c r="F13" s="23">
         <f t="shared" si="6"/>
-        <v>40738107.544236794</v>
+        <v>40648019.544236787</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="7"/>
-        <v>37668690</v>
+        <v>35006500</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
-        <v>2444286.4526542076</v>
+        <v>2438881.1726542073</v>
       </c>
       <c r="I13" s="21">
         <f t="shared" si="8"/>
-        <v>2260121.4</v>
-      </c>
-      <c r="J13" s="28">
+        <v>2100390</v>
+      </c>
+      <c r="J13" s="27">
         <f t="shared" si="2"/>
-        <v>11182393.996891007</v>
-      </c>
-      <c r="K13" s="28">
+        <v>12086900.716891007</v>
+      </c>
+      <c r="K13" s="27">
         <f t="shared" si="3"/>
-        <v>9928811.4000000004</v>
+        <v>6106890</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="1"/>
@@ -1134,32 +1124,29 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="D14" s="21">
-        <v>3000000</v>
-      </c>
       <c r="F14" s="23">
         <f t="shared" si="6"/>
-        <v>46182393.996890999</v>
+        <v>43086900.716890991</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="7"/>
-        <v>39928811.399999999</v>
+        <v>37106890</v>
       </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>2770943.6398134599</v>
+        <v>2585214.0430134595</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="8"/>
-        <v>2395728.6839999999</v>
-      </c>
-      <c r="J14" s="28">
+        <v>2226413.4</v>
+      </c>
+      <c r="J14" s="27">
         <f t="shared" si="2"/>
-        <v>13953337.636704467</v>
-      </c>
-      <c r="K14" s="28">
+        <v>14672114.759904467</v>
+      </c>
+      <c r="K14" s="27">
         <f t="shared" si="3"/>
-        <v>12324540.084000001</v>
+        <v>8333303.4000000004</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="1"/>
@@ -1181,36 +1168,33 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
-        <v>3000000</v>
-      </c>
       <c r="F15" s="23">
         <f t="shared" si="6"/>
-        <v>51953337.63670446</v>
+        <v>45672114.759904452</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="7"/>
-        <v>42324540.083999999</v>
+        <v>39333303.399999999</v>
       </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>3117200.2582022673</v>
+        <v>2740326.8855942669</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="8"/>
-        <v>2539472.4050399996</v>
-      </c>
-      <c r="J15" s="28">
+        <v>2359998.2039999999</v>
+      </c>
+      <c r="J15" s="27">
         <f t="shared" si="2"/>
-        <v>17070537.894906733</v>
-      </c>
-      <c r="K15" s="28">
+        <v>17412441.645498734</v>
+      </c>
+      <c r="K15" s="27">
         <f t="shared" si="3"/>
-        <v>14864012.48904</v>
+        <v>10693301.604</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="1"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M15" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1228,36 +1212,33 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="D16" s="21">
-        <v>2000000</v>
-      </c>
       <c r="F16" s="23">
         <f t="shared" si="6"/>
-        <v>57070537.894906729</v>
+        <v>48412441.645498715</v>
       </c>
       <c r="G16" s="25">
         <f t="shared" si="7"/>
-        <v>44864012.489040002</v>
+        <v>41693301.604000002</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
-        <v>3424232.2736944035</v>
+        <v>2904746.4987299228</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="8"/>
-        <v>2691840.7493424001</v>
-      </c>
-      <c r="J16" s="28">
+        <v>2501598.0962399999</v>
+      </c>
+      <c r="J16" s="27">
         <f t="shared" si="2"/>
-        <v>20494770.168601137</v>
-      </c>
-      <c r="K16" s="28">
+        <v>20317188.144228656</v>
+      </c>
+      <c r="K16" s="27">
         <f t="shared" si="3"/>
-        <v>17555853.238382399</v>
+        <v>13194899.700240001</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M16" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1280,27 +1261,27 @@
       </c>
       <c r="F17" s="23">
         <f t="shared" si="6"/>
-        <v>60494770.168601133</v>
+        <v>51317188.144228637</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="7"/>
-        <v>47555853.238382399</v>
+        <v>44194899.700240001</v>
       </c>
       <c r="H17" s="21">
         <f>F17*F$1</f>
-        <v>3629686.2101160679</v>
+        <v>3079031.2886537183</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="8"/>
-        <v>2853351.194302944</v>
-      </c>
-      <c r="J17" s="28">
+        <v>2651693.9820144</v>
+      </c>
+      <c r="J17" s="27">
         <f t="shared" si="2"/>
-        <v>24124456.378717206</v>
-      </c>
-      <c r="K17" s="28">
+        <v>23396219.432882376</v>
+      </c>
+      <c r="K17" s="27">
         <f t="shared" si="3"/>
-        <v>20409204.432685342</v>
+        <v>15846593.6822544</v>
       </c>
       <c r="L17" s="15">
         <f t="shared" si="1"/>
@@ -1324,31 +1305,31 @@
       </c>
       <c r="F18" s="23">
         <f t="shared" si="6"/>
-        <v>64124456.378717199</v>
+        <v>54396219.432882354</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="7"/>
-        <v>50409204.432685345</v>
+        <v>46846593.682254404</v>
       </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
-        <v>3847467.3827230316</v>
+        <v>3263773.1659729411</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="8"/>
-        <v>3024552.2659611208</v>
-      </c>
-      <c r="J18" s="28">
+        <v>2810795.620935264</v>
+      </c>
+      <c r="J18" s="27">
         <f t="shared" si="2"/>
-        <v>27971923.76144024</v>
-      </c>
-      <c r="K18" s="28">
+        <v>26659992.598855317</v>
+      </c>
+      <c r="K18" s="27">
         <f t="shared" si="3"/>
-        <v>23433756.698646463</v>
+        <v>18657389.303189665</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" si="1"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M18" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1368,27 +1349,27 @@
       </c>
       <c r="F19" s="23">
         <f t="shared" si="6"/>
-        <v>67971923.761440232</v>
+        <v>57659992.598855294</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="7"/>
-        <v>53433756.698646463</v>
+        <v>49657389.303189665</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
-        <v>4078315.4256864139</v>
+        <v>3459599.5559313176</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="8"/>
-        <v>3206025.4019187875</v>
-      </c>
-      <c r="J19" s="28">
+        <v>2979443.3581913798</v>
+      </c>
+      <c r="J19" s="27">
         <f t="shared" si="2"/>
-        <v>32050239.187126655</v>
-      </c>
-      <c r="K19" s="28">
+        <v>30119592.154786635</v>
+      </c>
+      <c r="K19" s="27">
         <f t="shared" si="3"/>
-        <v>26639782.100565251</v>
+        <v>21636832.661381043</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="1"/>
@@ -1412,31 +1393,31 @@
       </c>
       <c r="F20" s="23">
         <f t="shared" si="6"/>
-        <v>72050239.187126651</v>
+        <v>61119592.154786609</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" si="7"/>
-        <v>56639782.100565255</v>
+        <v>52636832.661381043</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
-        <v>4323014.3512275992</v>
+        <v>3667175.5292871962</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="8"/>
-        <v>3398386.926033915</v>
-      </c>
-      <c r="J20" s="28">
+        <v>3158209.9596828623</v>
+      </c>
+      <c r="J20" s="27">
         <f t="shared" si="2"/>
-        <v>36373253.538354255</v>
-      </c>
-      <c r="K20" s="28">
+        <v>33786767.684073828</v>
+      </c>
+      <c r="K20" s="27">
         <f t="shared" si="3"/>
-        <v>30038169.026599165</v>
+        <v>24795042.621063907</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M20" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1456,27 +1437,27 @@
       </c>
       <c r="F21" s="23">
         <f t="shared" si="6"/>
-        <v>76373253.538354248</v>
+        <v>64786767.684073806</v>
       </c>
       <c r="G21" s="25">
         <f t="shared" si="7"/>
-        <v>60038169.026599169</v>
+        <v>55795042.621063903</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
-        <v>4582395.2123012543</v>
+        <v>3887206.061044428</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="8"/>
-        <v>3602290.1415959499</v>
-      </c>
-      <c r="J21" s="28">
+        <v>3347702.5572638339</v>
+      </c>
+      <c r="J21" s="27">
         <f t="shared" si="2"/>
-        <v>40955648.75065551</v>
-      </c>
-      <c r="K21" s="28">
+        <v>37673973.745118253</v>
+      </c>
+      <c r="K21" s="27">
         <f t="shared" si="3"/>
-        <v>33640459.168195114</v>
+        <v>28142745.178327739</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="1"/>
@@ -1500,31 +1481,31 @@
       </c>
       <c r="F22" s="23">
         <f t="shared" si="6"/>
-        <v>80955648.750655502</v>
+        <v>68673973.745118231</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" si="7"/>
-        <v>63640459.168195121</v>
+        <v>59142745.178327739</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
-        <v>4857338.9250393296</v>
+        <v>4120438.4247070937</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="8"/>
-        <v>3818427.5500917071</v>
-      </c>
-      <c r="J22" s="28">
+        <v>3548564.7106996644</v>
+      </c>
+      <c r="J22" s="27">
         <f t="shared" si="2"/>
-        <v>45812987.675694838</v>
-      </c>
-      <c r="K22" s="28">
+        <v>41794412.169825345</v>
+      </c>
+      <c r="K22" s="27">
         <f t="shared" si="3"/>
-        <v>37458886.71828682</v>
+        <v>31691309.889027402</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M22" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1544,27 +1525,27 @@
       </c>
       <c r="F23" s="23">
         <f t="shared" si="6"/>
-        <v>85812987.675694838</v>
+        <v>72794412.16982533</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="7"/>
-        <v>67458886.718286827</v>
+        <v>62691309.889027402</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
-        <v>5148779.2605416905</v>
+        <v>4367664.7301895199</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="8"/>
-        <v>4047533.2030972093</v>
-      </c>
-      <c r="J23" s="28">
+        <v>3761478.5933416439</v>
+      </c>
+      <c r="J23" s="27">
         <f t="shared" si="2"/>
-        <v>50961766.936236531</v>
-      </c>
-      <c r="K23" s="28">
+        <v>46162076.900014862</v>
+      </c>
+      <c r="K23" s="27">
         <f t="shared" si="3"/>
-        <v>41506419.921384029</v>
+        <v>35452788.482369043</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="1"/>
@@ -1588,27 +1569,27 @@
       </c>
       <c r="F24" s="23">
         <f t="shared" si="6"/>
-        <v>90961766.936236531</v>
+        <v>77162076.900014848</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="7"/>
-        <v>71506419.921384037</v>
+        <v>66452788.482369043</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
-        <v>5457706.0161741916</v>
+        <v>4629724.6140008904</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="8"/>
-        <v>4290385.1952830423</v>
-      </c>
-      <c r="J24" s="28">
+        <v>3987167.3089421424</v>
+      </c>
+      <c r="J24" s="27">
         <f t="shared" si="2"/>
-        <v>56419472.95241072</v>
-      </c>
-      <c r="K24" s="28">
+        <v>50791801.514015749</v>
+      </c>
+      <c r="K24" s="27">
         <f t="shared" si="3"/>
-        <v>45796805.116667069</v>
+        <v>39439955.791311182</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="1"/>
@@ -1632,27 +1613,27 @@
       </c>
       <c r="F25" s="23">
         <f t="shared" si="6"/>
-        <v>96419472.952410728</v>
+        <v>81791801.514015734</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="7"/>
-        <v>75796805.116667077</v>
+        <v>70439955.79131119</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
-        <v>5785168.3771446431</v>
+        <v>4907508.0908409441</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="8"/>
-        <v>4547808.3070000242</v>
-      </c>
-      <c r="J25" s="28">
+        <v>4226397.347478671</v>
+      </c>
+      <c r="J25" s="27">
         <f t="shared" si="2"/>
-        <v>62204641.329555362</v>
-      </c>
-      <c r="K25" s="28">
+        <v>55699309.604856692</v>
+      </c>
+      <c r="K25" s="27">
         <f t="shared" si="3"/>
-        <v>50344613.423667096</v>
+        <v>43666353.138789855</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="1"/>
@@ -1676,27 +1657,27 @@
       </c>
       <c r="F26" s="23">
         <f t="shared" si="6"/>
-        <v>102204641.32955538</v>
+        <v>86699309.604856685</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="7"/>
-        <v>80344613.423667103</v>
+        <v>74666353.138789862</v>
       </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
-        <v>6132278.4797733221</v>
+        <v>5201958.5762914009</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="8"/>
-        <v>4820676.8054200262</v>
-      </c>
-      <c r="J26" s="28">
+        <v>4479981.1883273916</v>
+      </c>
+      <c r="J26" s="27">
         <f t="shared" si="2"/>
-        <v>68336919.80932869</v>
-      </c>
-      <c r="K26" s="28">
+        <v>60901268.181148097</v>
+      </c>
+      <c r="K26" s="27">
         <f t="shared" si="3"/>
-        <v>55165290.229087122</v>
+        <v>48146334.327117249</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="1"/>
@@ -1720,27 +1701,27 @@
       </c>
       <c r="F27" s="23">
         <f t="shared" si="6"/>
-        <v>108336919.80932871</v>
+        <v>91901268.181148082</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="7"/>
-        <v>85165290.229087129</v>
+        <v>79146334.327117249</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>6500215.1885597222</v>
+        <v>5514076.0908688847</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="8"/>
-        <v>5109917.4137452273</v>
-      </c>
-      <c r="J27" s="28">
+        <v>4748780.0596270347</v>
+      </c>
+      <c r="J27" s="27">
         <f t="shared" si="2"/>
-        <v>74837134.997888416</v>
-      </c>
-      <c r="K27" s="28">
+        <v>66415344.27201698</v>
+      </c>
+      <c r="K27" s="27">
         <f t="shared" si="3"/>
-        <v>60275207.642832346</v>
+        <v>52895114.386744283</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="1"/>
@@ -1764,27 +1745,27 @@
       </c>
       <c r="F28" s="23">
         <f t="shared" si="6"/>
-        <v>114837134.99788843</v>
+        <v>97415344.272016972</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" si="7"/>
-        <v>90275207.642832354</v>
+        <v>83895114.386744291</v>
       </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
-        <v>6890228.0998733053</v>
+        <v>5844920.656321018</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="8"/>
-        <v>5416512.4585699411</v>
-      </c>
-      <c r="J28" s="28">
+        <v>5033706.8632046571</v>
+      </c>
+      <c r="J28" s="27">
         <f t="shared" si="2"/>
-        <v>81727363.09776172</v>
-      </c>
-      <c r="K28" s="28">
+        <v>72260264.928337991</v>
+      </c>
+      <c r="K28" s="27">
         <f t="shared" si="3"/>
-        <v>65691720.10140229</v>
+        <v>57928821.249948941</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="1"/>
@@ -1813,31 +1794,31 @@
       <c r="E29" s="21"/>
       <c r="F29" s="23">
         <f t="shared" si="6"/>
-        <v>121727363.09776174</v>
+        <v>103260264.92833799</v>
       </c>
       <c r="G29" s="25">
         <f t="shared" si="7"/>
-        <v>95691720.101402298</v>
+        <v>88928821.249948949</v>
       </c>
       <c r="H29" s="23">
         <f t="shared" si="0"/>
-        <v>7303641.7858657036</v>
+        <v>6195615.8957002796</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="8"/>
-        <v>5741503.2060841378</v>
-      </c>
-      <c r="J29" s="30">
+        <v>5335729.2749969363</v>
+      </c>
+      <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>89031004.88362743</v>
-      </c>
-      <c r="K29" s="30">
+        <v>78455880.824038267</v>
+      </c>
+      <c r="K29" s="29">
         <f t="shared" si="3"/>
-        <v>71433223.30748643</v>
+        <v>63264550.524945877</v>
       </c>
       <c r="L29" s="17">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M29" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1857,27 +1838,27 @@
       </c>
       <c r="F30" s="23">
         <f t="shared" si="6"/>
-        <v>129031004.88362744</v>
+        <v>109455880.82403827</v>
       </c>
       <c r="G30" s="25">
         <f t="shared" si="7"/>
-        <v>101433223.30748643</v>
+        <v>94264550.524945885</v>
       </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
-        <v>7741860.2930176463</v>
+        <v>6567352.8494422957</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="8"/>
-        <v>6085993.3984491853</v>
-      </c>
-      <c r="J30" s="28">
+        <v>5655873.031496753</v>
+      </c>
+      <c r="J30" s="27">
         <f t="shared" si="2"/>
-        <v>96772865.17664507</v>
-      </c>
-      <c r="K30" s="28">
+        <v>85023233.67348057</v>
+      </c>
+      <c r="K30" s="27">
         <f t="shared" si="3"/>
-        <v>77519216.705935612</v>
+        <v>68920423.556442633</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="1"/>
@@ -1901,31 +1882,31 @@
       </c>
       <c r="F31" s="23">
         <f t="shared" si="6"/>
-        <v>136772865.1766451</v>
+        <v>116023233.67348057</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="7"/>
-        <v>107519216.70593561</v>
+        <v>99920423.556442633</v>
       </c>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
-        <v>8206371.9105987055</v>
+        <v>6961394.0204088343</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="8"/>
-        <v>6451153.0023561362</v>
-      </c>
-      <c r="J31" s="28">
+        <v>5995225.4133865582</v>
+      </c>
+      <c r="J31" s="27">
         <f t="shared" si="2"/>
-        <v>104979237.08724378</v>
-      </c>
-      <c r="K31" s="28">
+        <v>91984627.693889409</v>
+      </c>
+      <c r="K31" s="27">
         <f t="shared" si="3"/>
-        <v>83970369.708291754</v>
+        <v>74915648.969829187</v>
       </c>
       <c r="L31" s="15">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M31" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1945,31 +1926,31 @@
       </c>
       <c r="F32" s="23">
         <f t="shared" si="6"/>
-        <v>144979237.0872438</v>
+        <v>122984627.69388941</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="7"/>
-        <v>113970369.70829175</v>
+        <v>105915648.96982919</v>
       </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
-        <v>8698754.2252346277</v>
+        <v>7379077.6616333639</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="8"/>
-        <v>6838222.1824975051</v>
-      </c>
-      <c r="J32" s="28">
+        <v>6354938.9381897505</v>
+      </c>
+      <c r="J32" s="27">
         <f t="shared" si="2"/>
-        <v>113677991.31247841</v>
-      </c>
-      <c r="K32" s="28">
+        <v>99363705.355522767</v>
+      </c>
+      <c r="K32" s="27">
         <f t="shared" si="3"/>
-        <v>90808591.890789255</v>
+        <v>81270587.908018932</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M32" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1989,27 +1970,27 @@
       </c>
       <c r="F33" s="23">
         <f t="shared" si="6"/>
-        <v>153677991.31247842</v>
+        <v>130363705.35552277</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="7"/>
-        <v>120808591.89078926</v>
+        <v>112270587.90801893</v>
       </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>9220679.4787487052</v>
+        <v>7821822.321331366</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="8"/>
-        <v>7248515.5134473555</v>
-      </c>
-      <c r="J33" s="28">
+        <v>6736235.2744811354</v>
+      </c>
+      <c r="J33" s="27">
         <f t="shared" si="2"/>
-        <v>122898670.79122712</v>
-      </c>
-      <c r="K33" s="28">
+        <v>107185527.67685413</v>
+      </c>
+      <c r="K33" s="27">
         <f t="shared" si="3"/>
-        <v>98057107.404236615</v>
+        <v>88006823.182500064</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="1"/>
@@ -2033,27 +2014,27 @@
       </c>
       <c r="F34" s="23">
         <f t="shared" si="6"/>
-        <v>162898670.79122713</v>
+        <v>138185527.67685413</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="7"/>
-        <v>128057107.40423661</v>
+        <v>119006823.18250006</v>
       </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
-        <v>9773920.2474736273</v>
+        <v>8291131.6606112476</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="8"/>
-        <v>7683426.4442541962</v>
-      </c>
-      <c r="J34" s="28">
+        <v>7140409.3909500036</v>
+      </c>
+      <c r="J34" s="27">
         <f t="shared" si="2"/>
-        <v>132672591.03870074</v>
-      </c>
-      <c r="K34" s="28">
+        <v>115476659.33746538</v>
+      </c>
+      <c r="K34" s="27">
         <f t="shared" si="3"/>
-        <v>105740533.8484908</v>
+        <v>95147232.573450074</v>
       </c>
       <c r="L34" s="15">
         <f t="shared" si="1"/>
@@ -2077,27 +2058,27 @@
       </c>
       <c r="F35" s="23">
         <f t="shared" si="6"/>
-        <v>172672591.03870076</v>
+        <v>146476659.33746538</v>
       </c>
       <c r="G35" s="25">
         <f t="shared" si="7"/>
-        <v>135740533.8484908</v>
+        <v>126147232.57345007</v>
       </c>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
-        <v>10360355.462322045</v>
+        <v>8788599.5602479223</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="8"/>
-        <v>8144432.0309094479</v>
-      </c>
-      <c r="J35" s="28">
+        <v>7568833.9544070037</v>
+      </c>
+      <c r="J35" s="27">
         <f t="shared" si="2"/>
-        <v>143032946.50102279</v>
-      </c>
-      <c r="K35" s="28">
+        <v>124265258.8977133</v>
+      </c>
+      <c r="K35" s="27">
         <f t="shared" si="3"/>
-        <v>113884965.87940025</v>
+        <v>102716066.52785708</v>
       </c>
       <c r="L35" s="15">
         <f t="shared" si="1"/>
@@ -2121,31 +2102,31 @@
       </c>
       <c r="F36" s="23">
         <f t="shared" si="6"/>
-        <v>183032946.50102282</v>
+        <v>155265258.8977133</v>
       </c>
       <c r="G36" s="25">
         <f t="shared" si="7"/>
-        <v>143884965.87940025</v>
+        <v>133716066.52785708</v>
       </c>
       <c r="H36" s="21">
         <f t="shared" si="0"/>
-        <v>10981976.790061368</v>
+        <v>9315915.5338627975</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="8"/>
-        <v>8633097.9527640156</v>
-      </c>
-      <c r="J36" s="28">
+        <v>8022963.9916714244</v>
+      </c>
+      <c r="J36" s="27">
         <f t="shared" si="2"/>
-        <v>154014923.29108414</v>
-      </c>
-      <c r="K36" s="28">
+        <v>133581174.4315761</v>
+      </c>
+      <c r="K36" s="27">
         <f t="shared" si="3"/>
-        <v>122518063.83216427</v>
+        <v>110739030.51952851</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="1"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M36" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2165,27 +2146,27 @@
       </c>
       <c r="F37" s="23">
         <f t="shared" si="6"/>
-        <v>194014923.29108417</v>
+        <v>164581174.4315761</v>
       </c>
       <c r="G37" s="25">
         <f t="shared" si="7"/>
-        <v>152518063.83216426</v>
+        <v>141739030.51952851</v>
       </c>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
-        <v>11640895.39746505</v>
+        <v>9874870.465894565</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="8"/>
-        <v>9151083.8299298547</v>
-      </c>
-      <c r="J37" s="28">
+        <v>8504341.83117171</v>
+      </c>
+      <c r="J37" s="27">
         <f t="shared" si="2"/>
-        <v>165655818.68854919</v>
-      </c>
-      <c r="K37" s="28">
+        <v>143456044.89747065</v>
+      </c>
+      <c r="K37" s="27">
         <f t="shared" si="3"/>
-        <v>131669147.66209413</v>
+        <v>119243372.35070021</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="1"/>
@@ -2209,27 +2190,27 @@
       </c>
       <c r="F38" s="23">
         <f t="shared" si="6"/>
-        <v>205655818.68854922</v>
+        <v>174456044.89747065</v>
       </c>
       <c r="G38" s="25">
         <f t="shared" si="7"/>
-        <v>161669147.66209412</v>
+        <v>150243372.35070023</v>
       </c>
       <c r="H38" s="21">
         <f t="shared" ref="H38:H69" si="9">F38*F$1</f>
-        <v>12339349.121312954</v>
+        <v>10467362.693848239</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="8"/>
-        <v>9700148.8597256467</v>
-      </c>
-      <c r="J38" s="28">
+        <v>9014602.3410420138</v>
+      </c>
+      <c r="J38" s="27">
         <f t="shared" si="2"/>
-        <v>177995167.80986214</v>
-      </c>
-      <c r="K38" s="28">
+        <v>153923407.59131891</v>
+      </c>
+      <c r="K38" s="27">
         <f t="shared" si="3"/>
-        <v>141369296.52181977</v>
+        <v>128257974.69174223</v>
       </c>
       <c r="L38" s="15">
         <f t="shared" ref="L38:L69" si="10">I38/G38</f>
@@ -2253,31 +2234,31 @@
       </c>
       <c r="F39" s="23">
         <f t="shared" si="6"/>
-        <v>217995167.80986217</v>
+        <v>184923407.59131891</v>
       </c>
       <c r="G39" s="25">
         <f t="shared" si="7"/>
-        <v>171369296.52181977</v>
+        <v>159257974.69174224</v>
       </c>
       <c r="H39" s="21">
         <f t="shared" si="9"/>
-        <v>13079710.068591729</v>
+        <v>11095404.455479134</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" si="8"/>
-        <v>10282157.791309185</v>
-      </c>
-      <c r="J39" s="28">
+        <v>9555478.4815045334</v>
+      </c>
+      <c r="J39" s="27">
         <f t="shared" ref="J39:J70" si="11">J38+H39</f>
-        <v>191074877.87845385</v>
-      </c>
-      <c r="K39" s="28">
+        <v>165018812.04679805</v>
+      </c>
+      <c r="K39" s="27">
         <f t="shared" ref="K39:K70" si="12">K38+I39</f>
-        <v>151651454.31312895</v>
+        <v>137813453.17324677</v>
       </c>
       <c r="L39" s="15">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M39" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2297,27 +2278,27 @@
       </c>
       <c r="F40" s="23">
         <f t="shared" si="6"/>
-        <v>231074877.87845391</v>
+        <v>196018812.04679805</v>
       </c>
       <c r="G40" s="25">
         <f t="shared" si="7"/>
-        <v>181651454.31312895</v>
+        <v>168813453.17324677</v>
       </c>
       <c r="H40" s="21">
         <f t="shared" si="9"/>
-        <v>13864492.672707234</v>
+        <v>11761128.722807882</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="8"/>
-        <v>10899087.258787736</v>
-      </c>
-      <c r="J40" s="28">
+        <v>10128807.190394806</v>
+      </c>
+      <c r="J40" s="27">
         <f t="shared" si="11"/>
-        <v>204939370.55116108</v>
-      </c>
-      <c r="K40" s="28">
+        <v>176779940.76960593</v>
+      </c>
+      <c r="K40" s="27">
         <f t="shared" si="12"/>
-        <v>162550541.5719167</v>
+        <v>147942260.36364159</v>
       </c>
       <c r="L40" s="15">
         <f t="shared" si="10"/>
@@ -2332,51 +2313,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
+    <row r="41" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
         <v>36</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="30">
         <v>3</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>3</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31">
         <f t="shared" si="6"/>
-        <v>244939370.55116114</v>
-      </c>
-      <c r="G41" s="33">
+        <v>207779940.76960593</v>
+      </c>
+      <c r="G41" s="32">
         <f t="shared" si="7"/>
-        <v>192550541.5719167</v>
-      </c>
-      <c r="H41" s="32">
+        <v>178942260.36364159</v>
+      </c>
+      <c r="H41" s="31">
         <f t="shared" si="9"/>
-        <v>14696362.233069668</v>
-      </c>
-      <c r="I41" s="32">
+        <v>12466796.446176356</v>
+      </c>
+      <c r="I41" s="31">
         <f t="shared" si="8"/>
-        <v>11553032.494315002</v>
-      </c>
-      <c r="J41" s="34">
+        <v>10736535.621818496</v>
+      </c>
+      <c r="J41" s="33">
         <f t="shared" si="11"/>
-        <v>219635732.78423074</v>
-      </c>
-      <c r="K41" s="34">
+        <v>189246737.21578228</v>
+      </c>
+      <c r="K41" s="33">
         <f t="shared" si="12"/>
-        <v>174103574.0662317</v>
-      </c>
-      <c r="L41" s="35">
+        <v>158678795.98546007</v>
+      </c>
+      <c r="L41" s="34">
         <f t="shared" si="10"/>
-        <v>0.06</v>
-      </c>
-      <c r="M41" s="36" t="str">
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="M41" s="35" t="str">
         <f t="shared" si="4"/>
         <v>TRUE</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2390,27 +2371,27 @@
       </c>
       <c r="F42" s="23">
         <f t="shared" si="6"/>
-        <v>259635732.7842308</v>
+        <v>220246737.21578228</v>
       </c>
       <c r="G42" s="25">
         <f t="shared" si="7"/>
-        <v>204103574.0662317</v>
+        <v>189678795.98546007</v>
       </c>
       <c r="H42" s="21">
         <f t="shared" si="9"/>
-        <v>15578143.967053847</v>
+        <v>13214804.232946936</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" si="8"/>
-        <v>12246214.443973901</v>
-      </c>
-      <c r="J42" s="28">
+        <v>11380727.759127604</v>
+      </c>
+      <c r="J42" s="27">
         <f t="shared" si="11"/>
-        <v>235213876.7512846</v>
-      </c>
-      <c r="K42" s="28">
+        <v>202461541.44872922</v>
+      </c>
+      <c r="K42" s="27">
         <f t="shared" si="12"/>
-        <v>186349788.5102056</v>
+        <v>170059523.74458769</v>
       </c>
       <c r="L42" s="15">
         <f t="shared" si="10"/>
@@ -2434,27 +2415,27 @@
       </c>
       <c r="F43" s="23">
         <f t="shared" si="6"/>
-        <v>275213876.75128466</v>
+        <v>233461541.44872922</v>
       </c>
       <c r="G43" s="25">
         <f t="shared" si="7"/>
-        <v>216349788.5102056</v>
+        <v>201059523.74458769</v>
       </c>
       <c r="H43" s="21">
         <f t="shared" si="9"/>
-        <v>16512832.605077079</v>
+        <v>14007692.486923752</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="8"/>
-        <v>12980987.310612336</v>
-      </c>
-      <c r="J43" s="28">
+        <v>12063571.424675262</v>
+      </c>
+      <c r="J43" s="27">
         <f t="shared" si="11"/>
-        <v>251726709.35636169</v>
-      </c>
-      <c r="K43" s="28">
+        <v>216469233.93565297</v>
+      </c>
+      <c r="K43" s="27">
         <f t="shared" si="12"/>
-        <v>199330775.82081795</v>
+        <v>182123095.16926295</v>
       </c>
       <c r="L43" s="15">
         <f t="shared" si="10"/>
@@ -2478,31 +2459,31 @@
       </c>
       <c r="F44" s="23">
         <f t="shared" si="6"/>
-        <v>291726709.35636175</v>
+        <v>247469233.93565297</v>
       </c>
       <c r="G44" s="25">
         <f t="shared" si="7"/>
-        <v>229330775.82081795</v>
+        <v>213123095.16926295</v>
       </c>
       <c r="H44" s="21">
         <f t="shared" si="9"/>
-        <v>17503602.561381705</v>
+        <v>14848154.036139177</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="8"/>
-        <v>13759846.549249077</v>
-      </c>
-      <c r="J44" s="28">
+        <v>12787385.710155776</v>
+      </c>
+      <c r="J44" s="27">
         <f t="shared" si="11"/>
-        <v>269230311.91774338</v>
-      </c>
-      <c r="K44" s="28">
+        <v>231317387.97179216</v>
+      </c>
+      <c r="K44" s="27">
         <f t="shared" si="12"/>
-        <v>213090622.37006703</v>
+        <v>194910480.87941873</v>
       </c>
       <c r="L44" s="15">
         <f t="shared" si="10"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M44" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2522,31 +2503,31 @@
       </c>
       <c r="F45" s="23">
         <f t="shared" si="6"/>
-        <v>309230311.91774344</v>
+        <v>262317387.97179216</v>
       </c>
       <c r="G45" s="25">
         <f t="shared" si="7"/>
-        <v>243090622.37006703</v>
+        <v>225910480.87941873</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="9"/>
-        <v>18553818.715064608</v>
+        <v>15739043.278307529</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="8"/>
-        <v>14585437.342204021</v>
-      </c>
-      <c r="J45" s="28">
+        <v>13554628.852765122</v>
+      </c>
+      <c r="J45" s="27">
         <f t="shared" si="11"/>
-        <v>287784130.63280797</v>
-      </c>
-      <c r="K45" s="28">
+        <v>247056431.25009969</v>
+      </c>
+      <c r="K45" s="27">
         <f t="shared" si="12"/>
-        <v>227676059.71227106</v>
+        <v>208465109.73218384</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M45" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2566,27 +2547,27 @@
       </c>
       <c r="F46" s="23">
         <f t="shared" si="6"/>
-        <v>327784130.63280803</v>
+        <v>278056431.25009972</v>
       </c>
       <c r="G46" s="25">
         <f t="shared" si="7"/>
-        <v>257676059.71227106</v>
+        <v>239465109.73218384</v>
       </c>
       <c r="H46" s="21">
         <f t="shared" si="9"/>
-        <v>19667047.83796848</v>
+        <v>16683385.875005983</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="8"/>
-        <v>15460563.582736263</v>
-      </c>
-      <c r="J46" s="28">
+        <v>14367906.583931031</v>
+      </c>
+      <c r="J46" s="27">
         <f t="shared" si="11"/>
-        <v>307451178.47077644</v>
-      </c>
-      <c r="K46" s="28">
+        <v>263739817.12510568</v>
+      </c>
+      <c r="K46" s="27">
         <f t="shared" si="12"/>
-        <v>243136623.29500732</v>
+        <v>222833016.31611487</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="10"/>
@@ -2610,27 +2591,27 @@
       </c>
       <c r="F47" s="23">
         <f t="shared" si="6"/>
-        <v>347451178.4707765</v>
+        <v>294739817.12510568</v>
       </c>
       <c r="G47" s="25">
         <f t="shared" si="7"/>
-        <v>273136623.29500735</v>
+        <v>253833016.31611487</v>
       </c>
       <c r="H47" s="21">
         <f t="shared" si="9"/>
-        <v>20847070.708246589</v>
+        <v>17684389.02750634</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="8"/>
-        <v>16388197.39770044</v>
-      </c>
-      <c r="J47" s="28">
+        <v>15229980.978966892</v>
+      </c>
+      <c r="J47" s="27">
         <f t="shared" si="11"/>
-        <v>328298249.17902303</v>
-      </c>
-      <c r="K47" s="28">
+        <v>281424206.15261203</v>
+      </c>
+      <c r="K47" s="27">
         <f t="shared" si="12"/>
-        <v>259524820.69270775</v>
+        <v>238062997.29508176</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="10"/>
@@ -2654,31 +2635,31 @@
       </c>
       <c r="F48" s="23">
         <f t="shared" si="6"/>
-        <v>368298249.17902309</v>
+        <v>312424206.15261203</v>
       </c>
       <c r="G48" s="25">
         <f t="shared" si="7"/>
-        <v>289524820.69270778</v>
+        <v>269062997.29508173</v>
       </c>
       <c r="H48" s="21">
         <f t="shared" si="9"/>
-        <v>22097894.950741384</v>
+        <v>18745452.369156722</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" si="8"/>
-        <v>17371489.241562467</v>
-      </c>
-      <c r="J48" s="28">
+        <v>16143779.837704904</v>
+      </c>
+      <c r="J48" s="27">
         <f t="shared" si="11"/>
-        <v>350396144.12976444</v>
-      </c>
-      <c r="K48" s="28">
+        <v>300169658.52176875</v>
+      </c>
+      <c r="K48" s="27">
         <f t="shared" si="12"/>
-        <v>276896309.9342702</v>
+        <v>254206777.13278666</v>
       </c>
       <c r="L48" s="15">
         <f t="shared" si="10"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M48" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2698,27 +2679,27 @@
       </c>
       <c r="F49" s="23">
         <f t="shared" si="6"/>
-        <v>390396144.1297645</v>
+        <v>331169658.52176875</v>
       </c>
       <c r="G49" s="25">
         <f t="shared" si="7"/>
-        <v>306896309.93427026</v>
+        <v>285206777.13278663</v>
       </c>
       <c r="H49" s="21">
         <f t="shared" si="9"/>
-        <v>23423768.647785868</v>
+        <v>19870179.511306126</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="8"/>
-        <v>18413778.596056215</v>
-      </c>
-      <c r="J49" s="28">
+        <v>17112406.627967197</v>
+      </c>
+      <c r="J49" s="27">
         <f t="shared" si="11"/>
-        <v>373819912.77755028</v>
-      </c>
-      <c r="K49" s="28">
+        <v>320039838.03307486</v>
+      </c>
+      <c r="K49" s="27">
         <f t="shared" si="12"/>
-        <v>295310088.53032643</v>
+        <v>271319183.76075387</v>
       </c>
       <c r="L49" s="15">
         <f t="shared" si="10"/>
@@ -2742,27 +2723,27 @@
       </c>
       <c r="F50" s="23">
         <f t="shared" si="6"/>
-        <v>413819912.77755034</v>
+        <v>351039838.03307486</v>
       </c>
       <c r="G50" s="25">
         <f t="shared" si="7"/>
-        <v>325310088.53032649</v>
+        <v>302319183.76075381</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="9"/>
-        <v>24829194.76665302</v>
+        <v>21062390.281984489</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" si="8"/>
-        <v>19518605.311819587</v>
-      </c>
-      <c r="J50" s="28">
+        <v>18139151.025645226</v>
+      </c>
+      <c r="J50" s="27">
         <f t="shared" si="11"/>
-        <v>398649107.54420328</v>
-      </c>
-      <c r="K50" s="28">
+        <v>341102228.31505936</v>
+      </c>
+      <c r="K50" s="27">
         <f t="shared" si="12"/>
-        <v>314828693.84214604</v>
+        <v>289458334.78639913</v>
       </c>
       <c r="L50" s="15">
         <f t="shared" si="10"/>
@@ -2786,27 +2767,27 @@
       </c>
       <c r="F51" s="23">
         <f t="shared" si="6"/>
-        <v>438649107.54420334</v>
+        <v>372102228.31505936</v>
       </c>
       <c r="G51" s="25">
         <f t="shared" si="7"/>
-        <v>344828693.8421461</v>
+        <v>320458334.78639901</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="9"/>
-        <v>26318946.452652201</v>
+        <v>22326133.698903561</v>
       </c>
       <c r="I51" s="21">
         <f t="shared" si="8"/>
-        <v>20689721.630528767</v>
-      </c>
-      <c r="J51" s="28">
+        <v>19227500.087183941</v>
+      </c>
+      <c r="J51" s="27">
         <f t="shared" si="11"/>
-        <v>424968053.9968555</v>
-      </c>
-      <c r="K51" s="28">
+        <v>363428362.01396292</v>
+      </c>
+      <c r="K51" s="27">
         <f t="shared" si="12"/>
-        <v>335518415.47267479</v>
+        <v>308685834.87358308</v>
       </c>
       <c r="L51" s="15">
         <f t="shared" si="10"/>
@@ -2830,27 +2811,27 @@
       </c>
       <c r="F52" s="23">
         <f t="shared" si="6"/>
-        <v>464968053.99685556</v>
+        <v>394428362.01396292</v>
       </c>
       <c r="G52" s="25">
         <f t="shared" si="7"/>
-        <v>365518415.47267485</v>
+        <v>339685834.87358296</v>
       </c>
       <c r="H52" s="21">
         <f t="shared" si="9"/>
-        <v>27898083.239811331</v>
+        <v>23665701.720837776</v>
       </c>
       <c r="I52" s="21">
         <f t="shared" si="8"/>
-        <v>21931104.928360488</v>
-      </c>
-      <c r="J52" s="28">
+        <v>20381150.092414975</v>
+      </c>
+      <c r="J52" s="27">
         <f t="shared" si="11"/>
-        <v>452866137.2366668</v>
-      </c>
-      <c r="K52" s="28">
+        <v>387094063.7348007</v>
+      </c>
+      <c r="K52" s="27">
         <f t="shared" si="12"/>
-        <v>357449520.40103525</v>
+        <v>329066984.96599805</v>
       </c>
       <c r="L52" s="15">
         <f t="shared" si="10"/>
@@ -2877,27 +2858,27 @@
       </c>
       <c r="F53" s="23">
         <f t="shared" si="6"/>
-        <v>492866137.23666692</v>
+        <v>418094063.7348007</v>
       </c>
       <c r="G53" s="25">
         <f t="shared" si="7"/>
-        <v>387449520.40103531</v>
+        <v>360066984.96599793</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="9"/>
-        <v>29571968.234200016</v>
+        <v>25085643.824088041</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="8"/>
-        <v>23246971.224062119</v>
-      </c>
-      <c r="J53" s="28">
+        <v>21604019.097959876</v>
+      </c>
+      <c r="J53" s="27">
         <f t="shared" si="11"/>
-        <v>482438105.4708668</v>
-      </c>
-      <c r="K53" s="28">
+        <v>412179707.55888873</v>
+      </c>
+      <c r="K53" s="27">
         <f t="shared" si="12"/>
-        <v>380696491.62509739</v>
+        <v>350671004.06395793</v>
       </c>
       <c r="L53" s="15">
         <f t="shared" si="10"/>
@@ -2921,27 +2902,27 @@
       </c>
       <c r="F54" s="23">
         <f t="shared" si="6"/>
-        <v>522438105.47086692</v>
+        <v>443179707.55888873</v>
       </c>
       <c r="G54" s="25">
         <f t="shared" si="7"/>
-        <v>410696491.62509745</v>
+        <v>381671004.06395781</v>
       </c>
       <c r="H54" s="21">
         <f t="shared" si="9"/>
-        <v>31346286.328252014</v>
+        <v>26590782.453533322</v>
       </c>
       <c r="I54" s="21">
         <f t="shared" si="8"/>
-        <v>24641789.497505847</v>
-      </c>
-      <c r="J54" s="28">
+        <v>22900260.243837468</v>
+      </c>
+      <c r="J54" s="27">
         <f t="shared" si="11"/>
-        <v>513784391.79911882</v>
-      </c>
-      <c r="K54" s="28">
+        <v>438770490.01242208</v>
+      </c>
+      <c r="K54" s="27">
         <f t="shared" si="12"/>
-        <v>405338281.12260324</v>
+        <v>373571264.30779541</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="10"/>
@@ -2965,27 +2946,27 @@
       </c>
       <c r="F55" s="23">
         <f t="shared" si="6"/>
-        <v>553784391.79911888</v>
+        <v>469770490.01242208</v>
       </c>
       <c r="G55" s="25">
         <f t="shared" si="7"/>
-        <v>435338281.1226033</v>
+        <v>404571264.30779529</v>
       </c>
       <c r="H55" s="21">
         <f t="shared" si="9"/>
-        <v>33227063.507947132</v>
+        <v>28186229.400745325</v>
       </c>
       <c r="I55" s="21">
         <f t="shared" si="8"/>
-        <v>26120296.867356196</v>
-      </c>
-      <c r="J55" s="28">
+        <v>24274275.858467717</v>
+      </c>
+      <c r="J55" s="27">
         <f t="shared" si="11"/>
-        <v>547011455.30706596</v>
-      </c>
-      <c r="K55" s="28">
+        <v>466956719.41316742</v>
+      </c>
+      <c r="K55" s="27">
         <f t="shared" si="12"/>
-        <v>431458577.98995942</v>
+        <v>397845540.1662631</v>
       </c>
       <c r="L55" s="15">
         <f t="shared" si="10"/>
@@ -3009,27 +2990,27 @@
       </c>
       <c r="F56" s="23">
         <f t="shared" si="6"/>
-        <v>587011455.30706596</v>
+        <v>497956719.41316742</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="7"/>
-        <v>461458577.98995948</v>
+        <v>428845540.16626298</v>
       </c>
       <c r="H56" s="21">
         <f t="shared" si="9"/>
-        <v>35220687.318423957</v>
+        <v>29877403.164790045</v>
       </c>
       <c r="I56" s="21">
         <f t="shared" si="8"/>
-        <v>27687514.679397568</v>
-      </c>
-      <c r="J56" s="28">
+        <v>25730732.409975778</v>
+      </c>
+      <c r="J56" s="27">
         <f t="shared" si="11"/>
-        <v>582232142.62548995</v>
-      </c>
-      <c r="K56" s="28">
+        <v>496834122.57795745</v>
+      </c>
+      <c r="K56" s="27">
         <f t="shared" si="12"/>
-        <v>459146092.669357</v>
+        <v>423576272.57623887</v>
       </c>
       <c r="L56" s="15">
         <f t="shared" si="10"/>
@@ -3055,27 +3036,27 @@
       <c r="E57" s="23"/>
       <c r="F57" s="23">
         <f t="shared" si="6"/>
-        <v>622232142.62548995</v>
+        <v>527834122.57795745</v>
       </c>
       <c r="G57" s="25">
         <f t="shared" si="7"/>
-        <v>489146092.66935706</v>
+        <v>454576272.57623875</v>
       </c>
       <c r="H57" s="23">
         <f t="shared" si="9"/>
-        <v>37333928.557529397</v>
+        <v>31670047.354677446</v>
       </c>
       <c r="I57" s="21">
         <f t="shared" si="8"/>
-        <v>29348765.560161423</v>
-      </c>
-      <c r="J57" s="28">
+        <v>27274576.354574323</v>
+      </c>
+      <c r="J57" s="27">
         <f t="shared" si="11"/>
-        <v>619566071.1830194</v>
-      </c>
-      <c r="K57" s="28">
+        <v>528504169.93263489</v>
+      </c>
+      <c r="K57" s="27">
         <f t="shared" si="12"/>
-        <v>488494858.22951841</v>
+        <v>450850848.93081319</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="10"/>
@@ -3099,27 +3080,27 @@
       </c>
       <c r="F58" s="23">
         <f t="shared" si="6"/>
-        <v>659566071.1830194</v>
+        <v>559504169.93263495</v>
       </c>
       <c r="G58" s="25">
         <f t="shared" si="7"/>
-        <v>518494858.22951847</v>
+        <v>481850848.93081307</v>
       </c>
       <c r="H58" s="21">
         <f t="shared" si="9"/>
-        <v>39573964.270981163</v>
+        <v>33570250.195958093</v>
       </c>
       <c r="I58" s="21">
         <f t="shared" si="8"/>
-        <v>31109691.493771106</v>
-      </c>
-      <c r="J58" s="28">
+        <v>28911050.935848784</v>
+      </c>
+      <c r="J58" s="27">
         <f t="shared" si="11"/>
-        <v>659140035.45400059</v>
-      </c>
-      <c r="K58" s="28">
+        <v>562074420.12859297</v>
+      </c>
+      <c r="K58" s="27">
         <f t="shared" si="12"/>
-        <v>519604549.72328949</v>
+        <v>479761899.86666197</v>
       </c>
       <c r="L58" s="15">
         <f t="shared" si="10"/>
@@ -3143,27 +3124,27 @@
       </c>
       <c r="F59" s="23">
         <f t="shared" si="6"/>
-        <v>699140035.45400059</v>
+        <v>593074420.12859309</v>
       </c>
       <c r="G59" s="25">
         <f t="shared" si="7"/>
-        <v>549604549.72328961</v>
+        <v>510761899.86666185</v>
       </c>
       <c r="H59" s="21">
         <f t="shared" si="9"/>
-        <v>41948402.127240032</v>
+        <v>35584465.207715586</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="8"/>
-        <v>32976272.983397376</v>
-      </c>
-      <c r="J59" s="28">
+        <v>30645713.991999708</v>
+      </c>
+      <c r="J59" s="27">
         <f t="shared" si="11"/>
-        <v>701088437.58124065</v>
-      </c>
-      <c r="K59" s="28">
+        <v>597658885.3363086</v>
+      </c>
+      <c r="K59" s="27">
         <f t="shared" si="12"/>
-        <v>552580822.70668685</v>
+        <v>510407613.85866165</v>
       </c>
       <c r="L59" s="15">
         <f t="shared" si="10"/>
@@ -3187,27 +3168,27 @@
       </c>
       <c r="F60" s="23">
         <f t="shared" si="6"/>
-        <v>741088437.58124065</v>
+        <v>628658885.33630872</v>
       </c>
       <c r="G60" s="25">
         <f t="shared" si="7"/>
-        <v>582580822.70668697</v>
+        <v>541407613.85866153</v>
       </c>
       <c r="H60" s="21">
         <f t="shared" si="9"/>
-        <v>44465306.254874438</v>
+        <v>37719533.120178521</v>
       </c>
       <c r="I60" s="21">
         <f t="shared" si="8"/>
-        <v>34954849.362401217</v>
-      </c>
-      <c r="J60" s="28">
+        <v>32484456.831519689</v>
+      </c>
+      <c r="J60" s="27">
         <f t="shared" si="11"/>
-        <v>745553743.83611512</v>
-      </c>
-      <c r="K60" s="28">
+        <v>635378418.45648718</v>
+      </c>
+      <c r="K60" s="27">
         <f t="shared" si="12"/>
-        <v>587535672.0690881</v>
+        <v>542892070.69018137</v>
       </c>
       <c r="L60" s="15">
         <f t="shared" si="10"/>
@@ -3231,31 +3212,31 @@
       </c>
       <c r="F61" s="23">
         <f t="shared" si="6"/>
-        <v>785553743.83611512</v>
+        <v>666378418.45648718</v>
       </c>
       <c r="G61" s="25">
         <f t="shared" si="7"/>
-        <v>617535672.06908822</v>
+        <v>573892070.69018126</v>
       </c>
       <c r="H61" s="21">
         <f t="shared" si="9"/>
-        <v>47133224.630166903</v>
+        <v>39982705.107389227</v>
       </c>
       <c r="I61" s="21">
         <f t="shared" si="8"/>
-        <v>37052140.324145295</v>
-      </c>
-      <c r="J61" s="28">
+        <v>34433524.241410874</v>
+      </c>
+      <c r="J61" s="27">
         <f t="shared" si="11"/>
-        <v>792686968.46628201</v>
-      </c>
-      <c r="K61" s="28">
+        <v>675361123.56387639</v>
+      </c>
+      <c r="K61" s="27">
         <f t="shared" si="12"/>
-        <v>624587812.39323342</v>
+        <v>577325594.93159223</v>
       </c>
       <c r="L61" s="15">
         <f t="shared" si="10"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M61" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3275,31 +3256,31 @@
       </c>
       <c r="F62" s="23">
         <f t="shared" si="6"/>
-        <v>832686968.46628201</v>
+        <v>706361123.56387639</v>
       </c>
       <c r="G62" s="25">
         <f t="shared" si="7"/>
-        <v>654587812.39323354</v>
+        <v>608325594.93159211</v>
       </c>
       <c r="H62" s="21">
         <f t="shared" si="9"/>
-        <v>49961218.107976921</v>
+        <v>42381667.413832583</v>
       </c>
       <c r="I62" s="21">
         <f t="shared" si="8"/>
-        <v>39275268.743594013</v>
-      </c>
-      <c r="J62" s="28">
+        <v>36499535.695895523</v>
+      </c>
+      <c r="J62" s="27">
         <f t="shared" si="11"/>
-        <v>842648186.57425892</v>
-      </c>
-      <c r="K62" s="28">
+        <v>717742790.97770894</v>
+      </c>
+      <c r="K62" s="27">
         <f t="shared" si="12"/>
-        <v>663863081.13682747</v>
+        <v>613825130.62748778</v>
       </c>
       <c r="L62" s="15">
         <f t="shared" si="10"/>
-        <v>6.0000000000000005E-2</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M62" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3319,27 +3300,27 @@
       </c>
       <c r="F63" s="23">
         <f t="shared" si="6"/>
-        <v>882648186.57425892</v>
+        <v>748742790.97770894</v>
       </c>
       <c r="G63" s="25">
         <f t="shared" si="7"/>
-        <v>693863081.13682759</v>
+        <v>644825130.62748766</v>
       </c>
       <c r="H63" s="21">
         <f t="shared" si="9"/>
-        <v>52958891.194455534</v>
+        <v>44924567.458662532</v>
       </c>
       <c r="I63" s="21">
         <f t="shared" si="8"/>
-        <v>41631784.868209653</v>
-      </c>
-      <c r="J63" s="28">
+        <v>38689507.837649256</v>
+      </c>
+      <c r="J63" s="27">
         <f t="shared" si="11"/>
-        <v>895607077.76871443</v>
-      </c>
-      <c r="K63" s="28">
+        <v>762667358.43637145</v>
+      </c>
+      <c r="K63" s="27">
         <f t="shared" si="12"/>
-        <v>705494866.00503707</v>
+        <v>652514638.465137</v>
       </c>
       <c r="L63" s="15">
         <f t="shared" si="10"/>
@@ -3363,31 +3344,31 @@
       </c>
       <c r="F64" s="23">
         <f t="shared" si="6"/>
-        <v>935607077.76871443</v>
+        <v>793667358.43637145</v>
       </c>
       <c r="G64" s="25">
         <f t="shared" si="7"/>
-        <v>735494866.00503719</v>
+        <v>683514638.46513689</v>
       </c>
       <c r="H64" s="21">
         <f t="shared" si="9"/>
-        <v>56136424.666122861</v>
+        <v>47620041.506182283</v>
       </c>
       <c r="I64" s="21">
         <f t="shared" si="8"/>
-        <v>44129691.960302226</v>
-      </c>
-      <c r="J64" s="28">
+        <v>41010878.307908215</v>
+      </c>
+      <c r="J64" s="27">
         <f t="shared" si="11"/>
-        <v>951743502.43483734</v>
-      </c>
-      <c r="K64" s="28">
+        <v>810287399.94255376</v>
+      </c>
+      <c r="K64" s="27">
         <f t="shared" si="12"/>
-        <v>749624557.9653393</v>
+        <v>693525516.77304518</v>
       </c>
       <c r="L64" s="15">
         <f t="shared" si="10"/>
-        <v>5.9999999999999991E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M64" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3410,31 +3391,31 @@
       </c>
       <c r="F65" s="23">
         <f t="shared" si="6"/>
-        <v>991743502.43483734</v>
+        <v>841287399.94255376</v>
       </c>
       <c r="G65" s="25">
         <f t="shared" si="7"/>
-        <v>779624557.96533942</v>
+        <v>724525516.77304506</v>
       </c>
       <c r="H65" s="21">
         <f t="shared" si="9"/>
-        <v>59504610.146090239</v>
+        <v>50477243.996553227</v>
       </c>
       <c r="I65" s="21">
         <f t="shared" si="8"/>
-        <v>46777473.477920361</v>
-      </c>
-      <c r="J65" s="28">
+        <v>43471531.006382704</v>
+      </c>
+      <c r="J65" s="27">
         <f t="shared" si="11"/>
-        <v>1011248112.5809276</v>
-      </c>
-      <c r="K65" s="28">
+        <v>860764643.93910694</v>
+      </c>
+      <c r="K65" s="27">
         <f t="shared" si="12"/>
-        <v>796402031.44325972</v>
+        <v>736997047.77942789</v>
       </c>
       <c r="L65" s="15">
         <f t="shared" si="10"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M65" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3454,31 +3435,31 @@
       </c>
       <c r="F66" s="23">
         <f t="shared" si="6"/>
-        <v>1051248112.5809276</v>
+        <v>891764643.93910694</v>
       </c>
       <c r="G66" s="25">
         <f t="shared" si="7"/>
-        <v>826402031.44325984</v>
+        <v>767997047.77942777</v>
       </c>
       <c r="H66" s="21">
         <f t="shared" si="9"/>
-        <v>63074886.754855655</v>
+        <v>53505878.636346415</v>
       </c>
       <c r="I66" s="21">
         <f t="shared" si="8"/>
-        <v>49584121.886595592</v>
-      </c>
-      <c r="J66" s="28">
+        <v>46079822.866765663</v>
+      </c>
+      <c r="J66" s="27">
         <f t="shared" si="11"/>
-        <v>1074322999.3357832</v>
-      </c>
-      <c r="K66" s="28">
+        <v>914270522.5754534</v>
+      </c>
+      <c r="K66" s="27">
         <f t="shared" si="12"/>
-        <v>845986153.32985532</v>
+        <v>783076870.6461935</v>
       </c>
       <c r="L66" s="15">
         <f t="shared" si="10"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M66" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3498,27 +3479,27 @@
       </c>
       <c r="F67" s="23">
         <f t="shared" si="6"/>
-        <v>1114322999.3357832</v>
+        <v>945270522.5754534</v>
       </c>
       <c r="G67" s="25">
         <f t="shared" si="7"/>
-        <v>875986153.32985544</v>
+        <v>814076870.64619339</v>
       </c>
       <c r="H67" s="21">
         <f t="shared" si="9"/>
-        <v>66859379.960146993</v>
+        <v>56716231.354527205</v>
       </c>
       <c r="I67" s="21">
         <f t="shared" si="8"/>
-        <v>52559169.199791327</v>
-      </c>
-      <c r="J67" s="28">
+        <v>48844612.238771603</v>
+      </c>
+      <c r="J67" s="27">
         <f t="shared" si="11"/>
-        <v>1141182379.2959301</v>
-      </c>
-      <c r="K67" s="28">
+        <v>970986753.92998064</v>
+      </c>
+      <c r="K67" s="27">
         <f t="shared" si="12"/>
-        <v>898545322.52964664</v>
+        <v>831921482.88496506</v>
       </c>
       <c r="L67" s="15">
         <f t="shared" si="10"/>
@@ -3542,31 +3523,31 @@
       </c>
       <c r="F68" s="23">
         <f t="shared" si="6"/>
-        <v>1181182379.2959301</v>
+        <v>1001986753.9299806</v>
       </c>
       <c r="G68" s="25">
         <f t="shared" si="7"/>
-        <v>928545322.52964675</v>
+        <v>862921482.88496494</v>
       </c>
       <c r="H68" s="21">
         <f t="shared" si="9"/>
-        <v>70870942.757755801</v>
+        <v>60119205.235798836</v>
       </c>
       <c r="I68" s="21">
         <f t="shared" si="8"/>
-        <v>55712719.351778805</v>
-      </c>
-      <c r="J68" s="28">
+        <v>51775288.973097898</v>
+      </c>
+      <c r="J68" s="27">
         <f t="shared" si="11"/>
-        <v>1212053322.0536859</v>
-      </c>
-      <c r="K68" s="28">
+        <v>1031105959.1657795</v>
+      </c>
+      <c r="K68" s="27">
         <f t="shared" si="12"/>
-        <v>954258041.88142538</v>
+        <v>883696771.85806298</v>
       </c>
       <c r="L68" s="15">
         <f t="shared" si="10"/>
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M68" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3586,27 +3567,27 @@
       </c>
       <c r="F69" s="23">
         <f t="shared" si="6"/>
-        <v>1252053322.0536859</v>
+        <v>1062105959.1657795</v>
       </c>
       <c r="G69" s="25">
         <f t="shared" si="7"/>
-        <v>984258041.88142562</v>
+        <v>914696771.85806286</v>
       </c>
       <c r="H69" s="21">
         <f t="shared" si="9"/>
-        <v>75123199.323221147</v>
+        <v>63726357.549946763</v>
       </c>
       <c r="I69" s="21">
         <f t="shared" si="8"/>
-        <v>59055482.512885533</v>
-      </c>
-      <c r="J69" s="28">
+        <v>54881806.311483771</v>
+      </c>
+      <c r="J69" s="27">
         <f t="shared" si="11"/>
-        <v>1287176521.3769071</v>
-      </c>
-      <c r="K69" s="28">
+        <v>1094832316.7157261</v>
+      </c>
+      <c r="K69" s="27">
         <f t="shared" si="12"/>
-        <v>1013313524.394311</v>
+        <v>938578578.16954672</v>
       </c>
       <c r="L69" s="15">
         <f t="shared" si="10"/>
@@ -3630,27 +3611,27 @@
       </c>
       <c r="F70" s="23">
         <f t="shared" si="6"/>
-        <v>1327176521.3769071</v>
+        <v>1125832316.7157261</v>
       </c>
       <c r="G70" s="25">
         <f t="shared" si="7"/>
-        <v>1043313524.3943112</v>
+        <v>969578578.1695466</v>
       </c>
       <c r="H70" s="21">
         <f t="shared" ref="H70:H101" si="13">F70*F$1</f>
-        <v>79630591.282614425</v>
+        <v>67549939.00294356</v>
       </c>
       <c r="I70" s="21">
         <f t="shared" si="8"/>
-        <v>62598811.463658668</v>
-      </c>
-      <c r="J70" s="28">
+        <v>58174714.690172791</v>
+      </c>
+      <c r="J70" s="27">
         <f t="shared" si="11"/>
-        <v>1366807112.6595216</v>
-      </c>
-      <c r="K70" s="28">
+        <v>1162382255.7186697</v>
+      </c>
+      <c r="K70" s="27">
         <f t="shared" si="12"/>
-        <v>1075912335.8579695</v>
+        <v>996753292.85971951</v>
       </c>
       <c r="L70" s="15">
         <f t="shared" ref="L70:L101" si="14">I70/G70</f>
@@ -3674,27 +3655,27 @@
       </c>
       <c r="F71" s="23">
         <f t="shared" si="6"/>
-        <v>1406807112.6595216</v>
+        <v>1193382255.7186697</v>
       </c>
       <c r="G71" s="25">
         <f t="shared" si="7"/>
-        <v>1105912335.8579698</v>
+        <v>1027753292.8597194</v>
       </c>
       <c r="H71" s="21">
         <f t="shared" si="13"/>
-        <v>84408426.759571299</v>
+        <v>71602935.343120173</v>
       </c>
       <c r="I71" s="21">
         <f t="shared" si="8"/>
-        <v>66354740.151478186</v>
-      </c>
-      <c r="J71" s="28">
+        <v>61665197.571583159</v>
+      </c>
+      <c r="J71" s="27">
         <f t="shared" ref="J71:J102" si="15">J70+H71</f>
-        <v>1451215539.4190929</v>
-      </c>
-      <c r="K71" s="28">
+        <v>1233985191.0617898</v>
+      </c>
+      <c r="K71" s="27">
         <f t="shared" ref="K71:K102" si="16">K70+I71</f>
-        <v>1142267076.0094478</v>
+        <v>1058418490.4313027</v>
       </c>
       <c r="L71" s="15">
         <f t="shared" si="14"/>
@@ -3718,31 +3699,31 @@
       </c>
       <c r="F72" s="23">
         <f t="shared" ref="F72:F135" si="19">F71+D72+H71</f>
-        <v>1491215539.4190929</v>
+        <v>1264985191.0617898</v>
       </c>
       <c r="G72" s="25">
         <f t="shared" ref="G72:G135" si="20">G71+E72+I71</f>
-        <v>1172267076.0094481</v>
+        <v>1089418490.4313025</v>
       </c>
       <c r="H72" s="21">
         <f t="shared" si="13"/>
-        <v>89472932.365145564</v>
+        <v>75899111.463707387</v>
       </c>
       <c r="I72" s="21">
         <f t="shared" si="8"/>
-        <v>70336024.560566887</v>
-      </c>
-      <c r="J72" s="28">
+        <v>65365109.425878152</v>
+      </c>
+      <c r="J72" s="27">
         <f t="shared" si="15"/>
-        <v>1540688471.7842383</v>
-      </c>
-      <c r="K72" s="28">
+        <v>1309884302.5254972</v>
+      </c>
+      <c r="K72" s="27">
         <f t="shared" si="16"/>
-        <v>1212603100.5700147</v>
+        <v>1123783599.8571808</v>
       </c>
       <c r="L72" s="15">
         <f t="shared" si="14"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M72" s="13" t="str">
         <f t="shared" si="17"/>
@@ -3763,27 +3744,27 @@
       </c>
       <c r="F73" s="23">
         <f t="shared" si="19"/>
-        <v>1580688471.7842383</v>
+        <v>1340884302.5254972</v>
       </c>
       <c r="G73" s="25">
         <f t="shared" si="20"/>
-        <v>1242603100.570015</v>
+        <v>1154783599.8571806</v>
       </c>
       <c r="H73" s="21">
         <f t="shared" si="13"/>
-        <v>94841308.307054296</v>
+        <v>80453058.151529834</v>
       </c>
       <c r="I73" s="21">
         <f t="shared" si="8"/>
-        <v>74556186.034200892</v>
-      </c>
-      <c r="J73" s="28">
+        <v>69287015.991430834</v>
+      </c>
+      <c r="J73" s="27">
         <f t="shared" si="15"/>
-        <v>1635529780.0912926</v>
-      </c>
-      <c r="K73" s="28">
+        <v>1390337360.677027</v>
+      </c>
+      <c r="K73" s="27">
         <f t="shared" si="16"/>
-        <v>1287159286.6042156</v>
+        <v>1193070615.8486116</v>
       </c>
       <c r="L73" s="15">
         <f t="shared" si="14"/>
@@ -3807,31 +3788,31 @@
       </c>
       <c r="F74" s="23">
         <f t="shared" si="19"/>
-        <v>1675529780.0912926</v>
+        <v>1421337360.677027</v>
       </c>
       <c r="G74" s="25">
         <f t="shared" si="20"/>
-        <v>1317159286.6042159</v>
+        <v>1224070615.8486114</v>
       </c>
       <c r="H74" s="21">
         <f t="shared" si="13"/>
-        <v>100531786.80547756</v>
+        <v>85280241.640621617</v>
       </c>
       <c r="I74" s="21">
         <f t="shared" si="8"/>
-        <v>79029557.196252942</v>
-      </c>
-      <c r="J74" s="28">
+        <v>73444236.950916678</v>
+      </c>
+      <c r="J74" s="27">
         <f t="shared" si="15"/>
-        <v>1736061566.8967702</v>
-      </c>
-      <c r="K74" s="28">
+        <v>1475617602.3176486</v>
+      </c>
+      <c r="K74" s="27">
         <f t="shared" si="16"/>
-        <v>1366188843.8004684</v>
+        <v>1266514852.7995284</v>
       </c>
       <c r="L74" s="15">
         <f t="shared" si="14"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M74" s="13" t="str">
         <f t="shared" si="17"/>
@@ -3851,31 +3832,31 @@
       </c>
       <c r="F75" s="23">
         <f t="shared" si="19"/>
-        <v>1776061566.8967702</v>
+        <v>1506617602.3176486</v>
       </c>
       <c r="G75" s="25">
         <f t="shared" si="20"/>
-        <v>1396188843.8004689</v>
+        <v>1297514852.7995281</v>
       </c>
       <c r="H75" s="21">
         <f t="shared" si="13"/>
-        <v>106563694.01380621</v>
+        <v>90397056.139058918</v>
       </c>
       <c r="I75" s="21">
         <f t="shared" ref="I75:I137" si="21">G75*F$1</f>
-        <v>83771330.628028139</v>
-      </c>
-      <c r="J75" s="28">
+        <v>77850891.167971686</v>
+      </c>
+      <c r="J75" s="27">
         <f t="shared" si="15"/>
-        <v>1842625260.9105763</v>
-      </c>
-      <c r="K75" s="28">
+        <v>1566014658.4567075</v>
+      </c>
+      <c r="K75" s="27">
         <f t="shared" si="16"/>
-        <v>1449960174.4284966</v>
+        <v>1344365743.9675</v>
       </c>
       <c r="L75" s="15">
         <f t="shared" si="14"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M75" s="13" t="str">
         <f t="shared" si="17"/>
@@ -3895,31 +3876,31 @@
       </c>
       <c r="F76" s="23">
         <f t="shared" si="19"/>
-        <v>1882625260.9105763</v>
+        <v>1597014658.4567075</v>
       </c>
       <c r="G76" s="25">
         <f t="shared" si="20"/>
-        <v>1479960174.4284971</v>
+        <v>1375365743.9674997</v>
       </c>
       <c r="H76" s="21">
         <f t="shared" si="13"/>
-        <v>112957515.65463458</v>
+        <v>95820879.50740245</v>
       </c>
       <c r="I76" s="21">
         <f t="shared" si="21"/>
-        <v>88797610.46570982</v>
-      </c>
-      <c r="J76" s="28">
+        <v>82521944.638049975</v>
+      </c>
+      <c r="J76" s="27">
         <f t="shared" si="15"/>
-        <v>1955582776.5652108</v>
-      </c>
-      <c r="K76" s="28">
+        <v>1661835537.9641099</v>
+      </c>
+      <c r="K76" s="27">
         <f t="shared" si="16"/>
-        <v>1538757784.8942065</v>
+        <v>1426887688.6055501</v>
       </c>
       <c r="L76" s="15">
         <f t="shared" si="14"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M76" s="13" t="str">
         <f t="shared" si="17"/>
@@ -3942,27 +3923,27 @@
       </c>
       <c r="F77" s="23">
         <f t="shared" si="19"/>
-        <v>1995582776.5652108</v>
+        <v>1692835537.9641099</v>
       </c>
       <c r="G77" s="25">
         <f t="shared" si="20"/>
-        <v>1568757784.894207</v>
+        <v>1457887688.6055498</v>
       </c>
       <c r="H77" s="21">
         <f t="shared" si="13"/>
-        <v>119734966.59391265</v>
+        <v>101570132.27784659</v>
       </c>
       <c r="I77" s="21">
         <f t="shared" si="21"/>
-        <v>94125467.093652412</v>
-      </c>
-      <c r="J77" s="28">
+        <v>87473261.316332981</v>
+      </c>
+      <c r="J77" s="27">
         <f t="shared" si="15"/>
-        <v>2075317743.1591234</v>
-      </c>
-      <c r="K77" s="28">
+        <v>1763405670.2419565</v>
+      </c>
+      <c r="K77" s="27">
         <f t="shared" si="16"/>
-        <v>1632883251.987859</v>
+        <v>1514360949.9218831</v>
       </c>
       <c r="L77" s="15">
         <f t="shared" si="14"/>
@@ -3986,27 +3967,27 @@
       </c>
       <c r="F78" s="23">
         <f t="shared" si="19"/>
-        <v>2115317743.1591234</v>
+        <v>1794405670.2419565</v>
       </c>
       <c r="G78" s="25">
         <f t="shared" si="20"/>
-        <v>1662883251.9878595</v>
+        <v>1545360949.9218829</v>
       </c>
       <c r="H78" s="21">
         <f t="shared" si="13"/>
-        <v>126919064.5895474</v>
+        <v>107664340.21451738</v>
       </c>
       <c r="I78" s="21">
         <f t="shared" si="21"/>
-        <v>99772995.119271562</v>
-      </c>
-      <c r="J78" s="28">
+        <v>92721656.995312974</v>
+      </c>
+      <c r="J78" s="27">
         <f t="shared" si="15"/>
-        <v>2202236807.7486706</v>
-      </c>
-      <c r="K78" s="28">
+        <v>1871070010.4564738</v>
+      </c>
+      <c r="K78" s="27">
         <f t="shared" si="16"/>
-        <v>1732656247.1071305</v>
+        <v>1607082606.917196</v>
       </c>
       <c r="L78" s="15">
         <f t="shared" si="14"/>
@@ -4030,27 +4011,27 @@
       </c>
       <c r="F79" s="23">
         <f t="shared" si="19"/>
-        <v>2242236807.7486706</v>
+        <v>1902070010.4564738</v>
       </c>
       <c r="G79" s="25">
         <f t="shared" si="20"/>
-        <v>1762656247.107131</v>
+        <v>1638082606.9171958</v>
       </c>
       <c r="H79" s="21">
         <f t="shared" si="13"/>
-        <v>134534208.46492022</v>
+        <v>114124200.62738843</v>
       </c>
       <c r="I79" s="21">
         <f t="shared" si="21"/>
-        <v>105759374.82642786</v>
-      </c>
-      <c r="J79" s="28">
+        <v>98284956.415031746</v>
+      </c>
+      <c r="J79" s="27">
         <f t="shared" si="15"/>
-        <v>2336771016.2135906</v>
-      </c>
-      <c r="K79" s="28">
+        <v>1985194211.0838623</v>
+      </c>
+      <c r="K79" s="27">
         <f t="shared" si="16"/>
-        <v>1838415621.9335585</v>
+        <v>1705367563.3322277</v>
       </c>
       <c r="L79" s="15">
         <f t="shared" si="14"/>
@@ -4074,27 +4055,27 @@
       </c>
       <c r="F80" s="23">
         <f t="shared" si="19"/>
-        <v>2376771016.2135906</v>
+        <v>2016194211.0838623</v>
       </c>
       <c r="G80" s="25">
         <f t="shared" si="20"/>
-        <v>1868415621.9335589</v>
+        <v>1736367563.3322275</v>
       </c>
       <c r="H80" s="21">
         <f t="shared" si="13"/>
-        <v>142606260.97281542</v>
+        <v>120971652.66503173</v>
       </c>
       <c r="I80" s="21">
         <f t="shared" si="21"/>
-        <v>112104937.31601353</v>
-      </c>
-      <c r="J80" s="28">
+        <v>104182053.79993364</v>
+      </c>
+      <c r="J80" s="27">
         <f t="shared" si="15"/>
-        <v>2479377277.1864061</v>
-      </c>
-      <c r="K80" s="28">
+        <v>2106165863.748894</v>
+      </c>
+      <c r="K80" s="27">
         <f t="shared" si="16"/>
-        <v>1950520559.249572</v>
+        <v>1809549617.1321614</v>
       </c>
       <c r="L80" s="15">
         <f t="shared" si="14"/>
@@ -4118,27 +4099,27 @@
       </c>
       <c r="F81" s="23">
         <f t="shared" si="19"/>
-        <v>2519377277.1864061</v>
+        <v>2137165863.748894</v>
       </c>
       <c r="G81" s="25">
         <f t="shared" si="20"/>
-        <v>1980520559.2495725</v>
+        <v>1840549617.1321611</v>
       </c>
       <c r="H81" s="21">
         <f t="shared" si="13"/>
-        <v>151162636.63118437</v>
+        <v>128229951.82493363</v>
       </c>
       <c r="I81" s="21">
         <f t="shared" si="21"/>
-        <v>118831233.55497435</v>
-      </c>
-      <c r="J81" s="28">
+        <v>110432977.02792966</v>
+      </c>
+      <c r="J81" s="27">
         <f t="shared" si="15"/>
-        <v>2630539913.8175907</v>
-      </c>
-      <c r="K81" s="28">
+        <v>2234395815.5738277</v>
+      </c>
+      <c r="K81" s="27">
         <f t="shared" si="16"/>
-        <v>2069351792.8045464</v>
+        <v>1919982594.1600909</v>
       </c>
       <c r="L81" s="15">
         <f t="shared" si="14"/>
@@ -4162,27 +4143,27 @@
       </c>
       <c r="F82" s="23">
         <f t="shared" si="19"/>
-        <v>2670539913.8175907</v>
+        <v>2265395815.5738277</v>
       </c>
       <c r="G82" s="25">
         <f t="shared" si="20"/>
-        <v>2099351792.8045468</v>
+        <v>1950982594.1600909</v>
       </c>
       <c r="H82" s="21">
         <f t="shared" si="13"/>
-        <v>160232394.82905543</v>
+        <v>135923748.93442965</v>
       </c>
       <c r="I82" s="21">
         <f t="shared" si="21"/>
-        <v>125961107.5682728</v>
-      </c>
-      <c r="J82" s="28">
+        <v>117058955.64960545</v>
+      </c>
+      <c r="J82" s="27">
         <f t="shared" si="15"/>
-        <v>2790772308.646646</v>
-      </c>
-      <c r="K82" s="28">
+        <v>2370319564.5082574</v>
+      </c>
+      <c r="K82" s="27">
         <f t="shared" si="16"/>
-        <v>2195312900.3728189</v>
+        <v>2037041549.8096964</v>
       </c>
       <c r="L82" s="15">
         <f t="shared" si="14"/>
@@ -4206,27 +4187,27 @@
       </c>
       <c r="F83" s="23">
         <f t="shared" si="19"/>
-        <v>2830772308.646646</v>
+        <v>2401319564.5082574</v>
       </c>
       <c r="G83" s="25">
         <f t="shared" si="20"/>
-        <v>2225312900.3728194</v>
+        <v>2068041549.8096964</v>
       </c>
       <c r="H83" s="21">
         <f t="shared" si="13"/>
-        <v>169846338.51879877</v>
+        <v>144079173.87049544</v>
       </c>
       <c r="I83" s="21">
         <f t="shared" si="21"/>
-        <v>133518774.02236916</v>
-      </c>
-      <c r="J83" s="28">
+        <v>124082492.98858178</v>
+      </c>
+      <c r="J83" s="27">
         <f t="shared" si="15"/>
-        <v>2960618647.1654449</v>
-      </c>
-      <c r="K83" s="28">
+        <v>2514398738.3787527</v>
+      </c>
+      <c r="K83" s="27">
         <f t="shared" si="16"/>
-        <v>2328831674.3951883</v>
+        <v>2161124042.7982783</v>
       </c>
       <c r="L83" s="15">
         <f t="shared" si="14"/>
@@ -4250,27 +4231,27 @@
       </c>
       <c r="F84" s="23">
         <f t="shared" si="19"/>
-        <v>3000618647.1654449</v>
+        <v>2545398738.3787527</v>
       </c>
       <c r="G84" s="25">
         <f t="shared" si="20"/>
-        <v>2358831674.3951888</v>
+        <v>2192124042.7982783</v>
       </c>
       <c r="H84" s="21">
         <f t="shared" si="13"/>
-        <v>180037118.82992667</v>
+        <v>152723924.30272517</v>
       </c>
       <c r="I84" s="21">
         <f t="shared" si="21"/>
-        <v>141529900.46371132</v>
-      </c>
-      <c r="J84" s="28">
+        <v>131527442.56789669</v>
+      </c>
+      <c r="J84" s="27">
         <f t="shared" si="15"/>
-        <v>3140655765.9953713</v>
-      </c>
-      <c r="K84" s="28">
+        <v>2667122662.681478</v>
+      </c>
+      <c r="K84" s="27">
         <f t="shared" si="16"/>
-        <v>2470361574.8588996</v>
+        <v>2292651485.3661752</v>
       </c>
       <c r="L84" s="15">
         <f t="shared" si="14"/>
@@ -4294,27 +4275,27 @@
       </c>
       <c r="F85" s="23">
         <f t="shared" si="19"/>
-        <v>3180655765.9953713</v>
+        <v>2698122662.681478</v>
       </c>
       <c r="G85" s="25">
         <f t="shared" si="20"/>
-        <v>2500361574.8589001</v>
+        <v>2323651485.3661752</v>
       </c>
       <c r="H85" s="21">
         <f t="shared" si="13"/>
-        <v>190839345.95972228</v>
+        <v>161887359.76088867</v>
       </c>
       <c r="I85" s="21">
         <f t="shared" si="21"/>
-        <v>150021694.49153399</v>
-      </c>
-      <c r="J85" s="28">
+        <v>139419089.1219705</v>
+      </c>
+      <c r="J85" s="27">
         <f t="shared" si="15"/>
-        <v>3331495111.9550934</v>
-      </c>
-      <c r="K85" s="28">
+        <v>2829010022.4423666</v>
+      </c>
+      <c r="K85" s="27">
         <f t="shared" si="16"/>
-        <v>2620383269.3504333</v>
+        <v>2432070574.4881458</v>
       </c>
       <c r="L85" s="15">
         <f t="shared" si="14"/>
@@ -4338,27 +4319,27 @@
       </c>
       <c r="F86" s="23">
         <f t="shared" si="19"/>
-        <v>3371495111.9550934</v>
+        <v>2860010022.4423666</v>
       </c>
       <c r="G86" s="25">
         <f t="shared" si="20"/>
-        <v>2650383269.3504343</v>
+        <v>2463070574.4881458</v>
       </c>
       <c r="H86" s="21">
         <f t="shared" si="13"/>
-        <v>202289706.7173056</v>
+        <v>171600601.346542</v>
       </c>
       <c r="I86" s="21">
         <f t="shared" si="21"/>
-        <v>159022996.16102606</v>
-      </c>
-      <c r="J86" s="28">
+        <v>147784234.46928874</v>
+      </c>
+      <c r="J86" s="27">
         <f t="shared" si="15"/>
-        <v>3533784818.672399</v>
-      </c>
-      <c r="K86" s="28">
+        <v>3000610623.7889085</v>
+      </c>
+      <c r="K86" s="27">
         <f t="shared" si="16"/>
-        <v>2779406265.5114594</v>
+        <v>2579854808.9574347</v>
       </c>
       <c r="L86" s="15">
         <f t="shared" si="14"/>
@@ -4382,27 +4363,27 @@
       </c>
       <c r="F87" s="23">
         <f t="shared" si="19"/>
-        <v>3573784818.672399</v>
+        <v>3031610623.7889085</v>
       </c>
       <c r="G87" s="25">
         <f t="shared" si="20"/>
-        <v>2809406265.5114603</v>
+        <v>2610854808.9574347</v>
       </c>
       <c r="H87" s="21">
         <f t="shared" si="13"/>
-        <v>214427089.12034392</v>
+        <v>181896637.42733449</v>
       </c>
       <c r="I87" s="21">
         <f t="shared" si="21"/>
-        <v>168564375.93068761</v>
-      </c>
-      <c r="J87" s="28">
+        <v>156651288.53744608</v>
+      </c>
+      <c r="J87" s="27">
         <f t="shared" si="15"/>
-        <v>3748211907.7927427</v>
-      </c>
-      <c r="K87" s="28">
+        <v>3182507261.2162428</v>
+      </c>
+      <c r="K87" s="27">
         <f t="shared" si="16"/>
-        <v>2947970641.4421468</v>
+        <v>2736506097.4948807</v>
       </c>
       <c r="L87" s="15">
         <f t="shared" si="14"/>
@@ -4426,27 +4407,27 @@
       </c>
       <c r="F88" s="23">
         <f t="shared" si="19"/>
-        <v>3788211907.7927427</v>
+        <v>3213507261.2162428</v>
       </c>
       <c r="G88" s="25">
         <f t="shared" si="20"/>
-        <v>2977970641.4421477</v>
+        <v>2767506097.4948807</v>
       </c>
       <c r="H88" s="21">
         <f t="shared" si="13"/>
-        <v>227292714.46756455</v>
+        <v>192810435.67297456</v>
       </c>
       <c r="I88" s="21">
         <f t="shared" si="21"/>
-        <v>178678238.48652884</v>
-      </c>
-      <c r="J88" s="28">
+        <v>166050365.84969282</v>
+      </c>
+      <c r="J88" s="27">
         <f t="shared" si="15"/>
-        <v>3975504622.2603073</v>
-      </c>
-      <c r="K88" s="28">
+        <v>3375317696.8892174</v>
+      </c>
+      <c r="K88" s="27">
         <f t="shared" si="16"/>
-        <v>3126648879.9286757</v>
+        <v>2902556463.3445735</v>
       </c>
       <c r="L88" s="15">
         <f t="shared" si="14"/>
@@ -4473,31 +4454,31 @@
       </c>
       <c r="F89" s="23">
         <f t="shared" si="19"/>
-        <v>4015504622.2603073</v>
+        <v>3406317696.8892174</v>
       </c>
       <c r="G89" s="25">
         <f t="shared" si="20"/>
-        <v>3156648879.9286766</v>
+        <v>2933556463.3445735</v>
       </c>
       <c r="H89" s="21">
         <f t="shared" si="13"/>
-        <v>240930277.33561844</v>
+        <v>204379061.81335303</v>
       </c>
       <c r="I89" s="21">
         <f t="shared" si="21"/>
-        <v>189398932.79572058</v>
-      </c>
-      <c r="J89" s="28">
+        <v>176013387.80067441</v>
+      </c>
+      <c r="J89" s="27">
         <f t="shared" si="15"/>
-        <v>4216434899.5959258</v>
-      </c>
-      <c r="K89" s="28">
+        <v>3579696758.7025704</v>
+      </c>
+      <c r="K89" s="27">
         <f t="shared" si="16"/>
-        <v>3316047812.7243962</v>
+        <v>3078569851.1452479</v>
       </c>
       <c r="L89" s="15">
         <f t="shared" si="14"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M89" s="13" t="str">
         <f t="shared" si="17"/>
@@ -4517,31 +4498,31 @@
       </c>
       <c r="F90" s="23">
         <f t="shared" si="19"/>
-        <v>4256434899.5959258</v>
+        <v>3610696758.7025704</v>
       </c>
       <c r="G90" s="25">
         <f t="shared" si="20"/>
-        <v>3346047812.7243972</v>
+        <v>3109569851.1452479</v>
       </c>
       <c r="H90" s="21">
         <f t="shared" si="13"/>
-        <v>255386093.97575554</v>
+        <v>216641805.52215421</v>
       </c>
       <c r="I90" s="21">
         <f t="shared" si="21"/>
-        <v>200762868.76346382</v>
-      </c>
-      <c r="J90" s="28">
+        <v>186574191.06871486</v>
+      </c>
+      <c r="J90" s="27">
         <f t="shared" si="15"/>
-        <v>4471820993.571681</v>
-      </c>
-      <c r="K90" s="28">
+        <v>3796338564.2247248</v>
+      </c>
+      <c r="K90" s="27">
         <f t="shared" si="16"/>
-        <v>3516810681.4878602</v>
+        <v>3265144042.2139626</v>
       </c>
       <c r="L90" s="15">
         <f t="shared" si="14"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M90" s="13" t="str">
         <f t="shared" si="17"/>
@@ -4561,31 +4542,31 @@
       </c>
       <c r="F91" s="23">
         <f t="shared" si="19"/>
-        <v>4511820993.571681</v>
+        <v>3827338564.2247248</v>
       </c>
       <c r="G91" s="25">
         <f t="shared" si="20"/>
-        <v>3546810681.4878612</v>
+        <v>3296144042.2139626</v>
       </c>
       <c r="H91" s="21">
         <f t="shared" si="13"/>
-        <v>270709259.61430085</v>
+        <v>229640313.85348347</v>
       </c>
       <c r="I91" s="21">
         <f t="shared" si="21"/>
-        <v>212808640.88927165</v>
-      </c>
-      <c r="J91" s="28">
+        <v>197768642.53283775</v>
+      </c>
+      <c r="J91" s="27">
         <f t="shared" si="15"/>
-        <v>4742530253.1859818</v>
-      </c>
-      <c r="K91" s="28">
+        <v>4025978878.0782084</v>
+      </c>
+      <c r="K91" s="27">
         <f t="shared" si="16"/>
-        <v>3729619322.3771319</v>
+        <v>3462912684.7468004</v>
       </c>
       <c r="L91" s="15">
         <f t="shared" si="14"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M91" s="13" t="str">
         <f t="shared" si="17"/>
@@ -4605,27 +4586,27 @@
       </c>
       <c r="F92" s="23">
         <f t="shared" si="19"/>
-        <v>4782530253.1859818</v>
+        <v>4056978878.0782084</v>
       </c>
       <c r="G92" s="25">
         <f t="shared" si="20"/>
-        <v>3759619322.3771329</v>
+        <v>3493912684.7468004</v>
       </c>
       <c r="H92" s="21">
         <f t="shared" si="13"/>
-        <v>286951815.19115889</v>
+        <v>243418732.6846925</v>
       </c>
       <c r="I92" s="21">
         <f t="shared" si="21"/>
-        <v>225577159.34262797</v>
-      </c>
-      <c r="J92" s="28">
+        <v>209634761.08480802</v>
+      </c>
+      <c r="J92" s="27">
         <f t="shared" si="15"/>
-        <v>5029482068.377141</v>
-      </c>
-      <c r="K92" s="28">
+        <v>4269397610.7629008</v>
+      </c>
+      <c r="K92" s="27">
         <f t="shared" si="16"/>
-        <v>3955196481.7197599</v>
+        <v>3672547445.8316083</v>
       </c>
       <c r="L92" s="15">
         <f t="shared" si="14"/>
@@ -4649,27 +4630,27 @@
       </c>
       <c r="F93" s="23">
         <f t="shared" si="19"/>
-        <v>5069482068.377141</v>
+        <v>4300397610.7629013</v>
       </c>
       <c r="G93" s="25">
         <f t="shared" si="20"/>
-        <v>3985196481.7197609</v>
+        <v>3703547445.8316083</v>
       </c>
       <c r="H93" s="21">
         <f t="shared" si="13"/>
-        <v>304168924.10262847</v>
+        <v>258023856.64577407</v>
       </c>
       <c r="I93" s="21">
         <f t="shared" si="21"/>
-        <v>239111788.90318564</v>
-      </c>
-      <c r="J93" s="28">
+        <v>222212846.7498965</v>
+      </c>
+      <c r="J93" s="27">
         <f t="shared" si="15"/>
-        <v>5333650992.4797697</v>
-      </c>
-      <c r="K93" s="28">
+        <v>4527421467.4086752</v>
+      </c>
+      <c r="K93" s="27">
         <f t="shared" si="16"/>
-        <v>4194308270.6229458</v>
+        <v>3894760292.5815048</v>
       </c>
       <c r="L93" s="15">
         <f t="shared" si="14"/>
@@ -4693,27 +4674,27 @@
       </c>
       <c r="F94" s="23">
         <f t="shared" si="19"/>
-        <v>5373650992.4797697</v>
+        <v>4558421467.4086752</v>
       </c>
       <c r="G94" s="25">
         <f t="shared" si="20"/>
-        <v>4224308270.6229467</v>
+        <v>3925760292.5815048</v>
       </c>
       <c r="H94" s="21">
         <f t="shared" si="13"/>
-        <v>322419059.54878616</v>
+        <v>273505288.0445205</v>
       </c>
       <c r="I94" s="21">
         <f t="shared" si="21"/>
-        <v>253458496.23737681</v>
-      </c>
-      <c r="J94" s="28">
+        <v>235545617.55489028</v>
+      </c>
+      <c r="J94" s="27">
         <f t="shared" si="15"/>
-        <v>5656070052.0285559</v>
-      </c>
-      <c r="K94" s="28">
+        <v>4800926755.4531956</v>
+      </c>
+      <c r="K94" s="27">
         <f t="shared" si="16"/>
-        <v>4447766766.860323</v>
+        <v>4130305910.136395</v>
       </c>
       <c r="L94" s="15">
         <f t="shared" si="14"/>
@@ -4737,31 +4718,31 @@
       </c>
       <c r="F95" s="23">
         <f t="shared" si="19"/>
-        <v>5696070052.0285559</v>
+        <v>4831926755.4531956</v>
       </c>
       <c r="G95" s="25">
         <f t="shared" si="20"/>
-        <v>4477766766.8603239</v>
+        <v>4161305910.136395</v>
       </c>
       <c r="H95" s="21">
         <f t="shared" si="13"/>
-        <v>341764203.12171334</v>
+        <v>289915605.32719171</v>
       </c>
       <c r="I95" s="21">
         <f t="shared" si="21"/>
-        <v>268666006.01161945</v>
-      </c>
-      <c r="J95" s="28">
+        <v>249678354.60818368</v>
+      </c>
+      <c r="J95" s="27">
         <f t="shared" si="15"/>
-        <v>5997834255.1502695</v>
-      </c>
-      <c r="K95" s="28">
+        <v>5090842360.7803869</v>
+      </c>
+      <c r="K95" s="27">
         <f t="shared" si="16"/>
-        <v>4716432772.8719425</v>
+        <v>4379984264.7445784</v>
       </c>
       <c r="L95" s="15">
         <f t="shared" si="14"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M95" s="13" t="str">
         <f t="shared" si="17"/>
@@ -4781,27 +4762,27 @@
       </c>
       <c r="F96" s="23">
         <f t="shared" si="19"/>
-        <v>6037834255.1502695</v>
+        <v>5121842360.7803869</v>
       </c>
       <c r="G96" s="25">
         <f t="shared" si="20"/>
-        <v>4746432772.8719435</v>
+        <v>4410984264.7445784</v>
       </c>
       <c r="H96" s="21">
         <f t="shared" si="13"/>
-        <v>362270055.30901617</v>
+        <v>307310541.64682323</v>
       </c>
       <c r="I96" s="21">
         <f t="shared" si="21"/>
-        <v>284785966.3723166</v>
-      </c>
-      <c r="J96" s="28">
+        <v>264659055.8846747</v>
+      </c>
+      <c r="J96" s="27">
         <f t="shared" si="15"/>
-        <v>6360104310.4592857</v>
-      </c>
-      <c r="K96" s="28">
+        <v>5398152902.4272099</v>
+      </c>
+      <c r="K96" s="27">
         <f t="shared" si="16"/>
-        <v>5001218739.2442589</v>
+        <v>4644643320.6292534</v>
       </c>
       <c r="L96" s="15">
         <f t="shared" si="14"/>
@@ -4825,27 +4806,27 @@
       </c>
       <c r="F97" s="23">
         <f t="shared" si="19"/>
-        <v>6400104310.4592857</v>
+        <v>5429152902.4272099</v>
       </c>
       <c r="G97" s="25">
         <f t="shared" si="20"/>
-        <v>5031218739.2442598</v>
+        <v>4675643320.6292534</v>
       </c>
       <c r="H97" s="21">
         <f t="shared" si="13"/>
-        <v>384006258.62755716</v>
+        <v>325749174.14563257</v>
       </c>
       <c r="I97" s="21">
         <f t="shared" si="21"/>
-        <v>301873124.35465556</v>
-      </c>
-      <c r="J97" s="28">
+        <v>280538599.23775518</v>
+      </c>
+      <c r="J97" s="27">
         <f t="shared" si="15"/>
-        <v>6744110569.0868425</v>
-      </c>
-      <c r="K97" s="28">
+        <v>5723902076.5728426</v>
+      </c>
+      <c r="K97" s="27">
         <f t="shared" si="16"/>
-        <v>5303091863.5989141</v>
+        <v>4925181919.8670082</v>
       </c>
       <c r="L97" s="15">
         <f t="shared" si="14"/>
@@ -4871,27 +4852,27 @@
       <c r="E98" s="23"/>
       <c r="F98" s="23">
         <f t="shared" si="19"/>
-        <v>6784110569.0868425</v>
+        <v>5754902076.5728426</v>
       </c>
       <c r="G98" s="25">
         <f t="shared" si="20"/>
-        <v>5333091863.5989151</v>
+        <v>4956181919.8670082</v>
       </c>
       <c r="H98" s="23">
         <f t="shared" si="13"/>
-        <v>407046634.14521056</v>
+        <v>345294124.59437054</v>
       </c>
       <c r="I98" s="21">
         <f t="shared" si="21"/>
-        <v>319985511.8159349</v>
-      </c>
-      <c r="J98" s="28">
+        <v>297370915.19202048</v>
+      </c>
+      <c r="J98" s="27">
         <f t="shared" si="15"/>
-        <v>7151157203.2320528</v>
-      </c>
-      <c r="K98" s="28">
+        <v>6069196201.1672134</v>
+      </c>
+      <c r="K98" s="27">
         <f t="shared" si="16"/>
-        <v>5623077375.4148493</v>
+        <v>5222552835.0590286</v>
       </c>
       <c r="L98" s="15">
         <f t="shared" si="14"/>
@@ -4915,31 +4896,31 @@
       </c>
       <c r="F99" s="23">
         <f t="shared" si="19"/>
-        <v>7191157203.2320528</v>
+        <v>6100196201.1672134</v>
       </c>
       <c r="G99" s="25">
         <f t="shared" si="20"/>
-        <v>5653077375.4148502</v>
+        <v>5253552835.0590286</v>
       </c>
       <c r="H99" s="21">
         <f t="shared" si="13"/>
-        <v>431469432.19392318</v>
+        <v>366011772.07003278</v>
       </c>
       <c r="I99" s="21">
         <f t="shared" si="21"/>
-        <v>339184642.52489102</v>
-      </c>
-      <c r="J99" s="28">
+        <v>315213170.10354173</v>
+      </c>
+      <c r="J99" s="27">
         <f t="shared" si="15"/>
-        <v>7582626635.4259758</v>
-      </c>
-      <c r="K99" s="28">
+        <v>6435207973.2372465</v>
+      </c>
+      <c r="K99" s="27">
         <f t="shared" si="16"/>
-        <v>5962262017.9397402</v>
+        <v>5537766005.16257</v>
       </c>
       <c r="L99" s="15">
         <f t="shared" si="14"/>
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M99" s="13" t="str">
         <f t="shared" si="17"/>
@@ -4959,31 +4940,31 @@
       </c>
       <c r="F100" s="23">
         <f t="shared" si="19"/>
-        <v>7622626635.4259758</v>
+        <v>6466207973.2372465</v>
       </c>
       <c r="G100" s="25">
         <f t="shared" si="20"/>
-        <v>5992262017.9397411</v>
+        <v>5568766005.16257</v>
       </c>
       <c r="H100" s="21">
         <f t="shared" si="13"/>
-        <v>457357598.12555856</v>
+        <v>387972478.39423478</v>
       </c>
       <c r="I100" s="21">
         <f t="shared" si="21"/>
-        <v>359535721.07638443</v>
-      </c>
-      <c r="J100" s="28">
+        <v>334125960.30975419</v>
+      </c>
+      <c r="J100" s="27">
         <f t="shared" si="15"/>
-        <v>8039984233.5515347</v>
-      </c>
-      <c r="K100" s="28">
+        <v>6823180451.6314812</v>
+      </c>
+      <c r="K100" s="27">
         <f t="shared" si="16"/>
-        <v>6321797739.0161247</v>
+        <v>5871891965.4723244</v>
       </c>
       <c r="L100" s="15">
         <f t="shared" si="14"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M100" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5006,31 +4987,31 @@
       </c>
       <c r="F101" s="23">
         <f t="shared" si="19"/>
-        <v>8079984233.5515347</v>
+        <v>6854180451.6314812</v>
       </c>
       <c r="G101" s="25">
         <f t="shared" si="20"/>
-        <v>6351797739.0161257</v>
+        <v>5902891965.4723244</v>
       </c>
       <c r="H101" s="21">
         <f t="shared" si="13"/>
-        <v>484799054.01309204</v>
+        <v>411250827.09788883</v>
       </c>
       <c r="I101" s="21">
         <f t="shared" si="21"/>
-        <v>381107864.34096754</v>
-      </c>
-      <c r="J101" s="28">
+        <v>354173517.92833942</v>
+      </c>
+      <c r="J101" s="27">
         <f t="shared" si="15"/>
-        <v>8524783287.5646267</v>
-      </c>
-      <c r="K101" s="28">
+        <v>7234431278.7293701</v>
+      </c>
+      <c r="K101" s="27">
         <f t="shared" si="16"/>
-        <v>6702905603.3570919</v>
+        <v>6226065483.4006634</v>
       </c>
       <c r="L101" s="15">
         <f t="shared" si="14"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M101" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5050,31 +5031,31 @@
       </c>
       <c r="F102" s="23">
         <f t="shared" si="19"/>
-        <v>8564783287.5646267</v>
+        <v>7265431278.7293701</v>
       </c>
       <c r="G102" s="25">
         <f t="shared" si="20"/>
-        <v>6732905603.3570929</v>
+        <v>6257065483.4006634</v>
       </c>
       <c r="H102" s="21">
         <f t="shared" ref="H102:H137" si="22">F102*F$1</f>
-        <v>513886997.25387758</v>
+        <v>435925876.72376221</v>
       </c>
       <c r="I102" s="21">
         <f t="shared" si="21"/>
-        <v>403974336.20142555</v>
-      </c>
-      <c r="J102" s="28">
+        <v>375423929.00403976</v>
+      </c>
+      <c r="J102" s="27">
         <f t="shared" si="15"/>
-        <v>9038670284.8185043</v>
-      </c>
-      <c r="K102" s="28">
+        <v>7670357155.4531326</v>
+      </c>
+      <c r="K102" s="27">
         <f t="shared" si="16"/>
-        <v>7106879939.5585175</v>
+        <v>6601489412.4047031</v>
       </c>
       <c r="L102" s="15">
         <f t="shared" ref="L102:L137" si="23">I102/G102</f>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M102" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5094,27 +5075,27 @@
       </c>
       <c r="F103" s="23">
         <f t="shared" si="19"/>
-        <v>9078670284.8185043</v>
+        <v>7701357155.4531326</v>
       </c>
       <c r="G103" s="25">
         <f t="shared" si="20"/>
-        <v>7136879939.5585184</v>
+        <v>6632489412.4047031</v>
       </c>
       <c r="H103" s="21">
         <f t="shared" si="22"/>
-        <v>544720217.08911026</v>
+        <v>462081429.32718796</v>
       </c>
       <c r="I103" s="21">
         <f t="shared" si="21"/>
-        <v>428212796.37351108</v>
-      </c>
-      <c r="J103" s="28">
+        <v>397949364.74428219</v>
+      </c>
+      <c r="J103" s="27">
         <f t="shared" ref="J103:J137" si="24">J102+H103</f>
-        <v>9583390501.9076138</v>
-      </c>
-      <c r="K103" s="28">
+        <v>8132438584.7803202</v>
+      </c>
+      <c r="K103" s="27">
         <f t="shared" ref="K103:K137" si="25">K102+I103</f>
-        <v>7535092735.9320288</v>
+        <v>6999438777.1489849</v>
       </c>
       <c r="L103" s="15">
         <f t="shared" si="23"/>
@@ -5138,27 +5119,27 @@
       </c>
       <c r="F104" s="23">
         <f t="shared" si="19"/>
-        <v>9623390501.9076138</v>
+        <v>8163438584.7803202</v>
       </c>
       <c r="G104" s="25">
         <f t="shared" si="20"/>
-        <v>7565092735.9320297</v>
+        <v>7030438777.1489849</v>
       </c>
       <c r="H104" s="21">
         <f t="shared" si="22"/>
-        <v>577403430.11445677</v>
+        <v>489806315.08681917</v>
       </c>
       <c r="I104" s="21">
         <f t="shared" si="21"/>
-        <v>453905564.15592176</v>
-      </c>
-      <c r="J104" s="28">
+        <v>421826326.62893909</v>
+      </c>
+      <c r="J104" s="27">
         <f t="shared" si="24"/>
-        <v>10160793932.02207</v>
-      </c>
-      <c r="K104" s="28">
+        <v>8622244899.8671398</v>
+      </c>
+      <c r="K104" s="27">
         <f t="shared" si="25"/>
-        <v>7988998300.0879507</v>
+        <v>7421265103.7779236</v>
       </c>
       <c r="L104" s="15">
         <f t="shared" si="23"/>
@@ -5182,27 +5163,27 @@
       </c>
       <c r="F105" s="23">
         <f t="shared" si="19"/>
-        <v>10200793932.02207</v>
+        <v>8653244899.8671398</v>
       </c>
       <c r="G105" s="25">
         <f t="shared" si="20"/>
-        <v>8018998300.0879517</v>
+        <v>7452265103.7779236</v>
       </c>
       <c r="H105" s="21">
         <f t="shared" si="22"/>
-        <v>612047635.92132413</v>
+        <v>519194693.99202836</v>
       </c>
       <c r="I105" s="21">
         <f t="shared" si="21"/>
-        <v>481139898.0052771</v>
-      </c>
-      <c r="J105" s="28">
+        <v>447135906.22667539</v>
+      </c>
+      <c r="J105" s="27">
         <f t="shared" si="24"/>
-        <v>10772841567.943394</v>
-      </c>
-      <c r="K105" s="28">
+        <v>9141439593.859169</v>
+      </c>
+      <c r="K105" s="27">
         <f t="shared" si="25"/>
-        <v>8470138198.0932274</v>
+        <v>7868401010.0045986</v>
       </c>
       <c r="L105" s="15">
         <f t="shared" si="23"/>
@@ -5226,27 +5207,27 @@
       </c>
       <c r="F106" s="23">
         <f t="shared" si="19"/>
-        <v>10812841567.943394</v>
+        <v>9172439593.859169</v>
       </c>
       <c r="G106" s="25">
         <f t="shared" si="20"/>
-        <v>8500138198.0932283</v>
+        <v>7899401010.0045986</v>
       </c>
       <c r="H106" s="21">
         <f t="shared" si="22"/>
-        <v>648770494.07660365</v>
+        <v>550346375.63155007</v>
       </c>
       <c r="I106" s="21">
         <f t="shared" si="21"/>
-        <v>510008291.88559365</v>
-      </c>
-      <c r="J106" s="28">
+        <v>473964060.60027587</v>
+      </c>
+      <c r="J106" s="27">
         <f t="shared" si="24"/>
-        <v>11421612062.019997</v>
-      </c>
-      <c r="K106" s="28">
+        <v>9691785969.4907188</v>
+      </c>
+      <c r="K106" s="27">
         <f t="shared" si="25"/>
-        <v>8980146489.9788208</v>
+        <v>8342365070.6048746</v>
       </c>
       <c r="L106" s="15">
         <f t="shared" si="23"/>
@@ -5270,27 +5251,27 @@
       </c>
       <c r="F107" s="23">
         <f t="shared" si="19"/>
-        <v>11461612062.019997</v>
+        <v>9722785969.4907188</v>
       </c>
       <c r="G107" s="25">
         <f t="shared" si="20"/>
-        <v>9010146489.9788227</v>
+        <v>8373365070.6048746</v>
       </c>
       <c r="H107" s="21">
         <f t="shared" si="22"/>
-        <v>687696723.72119975</v>
+        <v>583367158.16944313</v>
       </c>
       <c r="I107" s="21">
         <f t="shared" si="21"/>
-        <v>540608789.39872932</v>
-      </c>
-      <c r="J107" s="28">
+        <v>502401904.23629248</v>
+      </c>
+      <c r="J107" s="27">
         <f t="shared" si="24"/>
-        <v>12109308785.741196</v>
-      </c>
-      <c r="K107" s="28">
+        <v>10275153127.660162</v>
+      </c>
+      <c r="K107" s="27">
         <f t="shared" si="25"/>
-        <v>9520755279.3775501</v>
+        <v>8844766974.8411674</v>
       </c>
       <c r="L107" s="15">
         <f t="shared" si="23"/>
@@ -5314,27 +5295,27 @@
       </c>
       <c r="F108" s="23">
         <f t="shared" si="19"/>
-        <v>12149308785.741196</v>
+        <v>10306153127.660162</v>
       </c>
       <c r="G108" s="25">
         <f t="shared" si="20"/>
-        <v>9550755279.377552</v>
+        <v>8875766974.8411674</v>
       </c>
       <c r="H108" s="21">
         <f t="shared" si="22"/>
-        <v>728958527.14447176</v>
+        <v>618369187.65960968</v>
       </c>
       <c r="I108" s="21">
         <f t="shared" si="21"/>
-        <v>573045316.76265311</v>
-      </c>
-      <c r="J108" s="28">
+        <v>532546018.49047005</v>
+      </c>
+      <c r="J108" s="27">
         <f t="shared" si="24"/>
-        <v>12838267312.885668</v>
-      </c>
-      <c r="K108" s="28">
+        <v>10893522315.319771</v>
+      </c>
+      <c r="K108" s="27">
         <f t="shared" si="25"/>
-        <v>10093800596.140203</v>
+        <v>9377312993.3316383</v>
       </c>
       <c r="L108" s="15">
         <f t="shared" si="23"/>
@@ -5358,27 +5339,27 @@
       </c>
       <c r="F109" s="23">
         <f t="shared" si="19"/>
-        <v>12878267312.885668</v>
+        <v>10924522315.319771</v>
       </c>
       <c r="G109" s="25">
         <f t="shared" si="20"/>
-        <v>10123800596.140205</v>
+        <v>9408312993.3316383</v>
       </c>
       <c r="H109" s="21">
         <f t="shared" si="22"/>
-        <v>772696038.77314007</v>
+        <v>655471338.91918623</v>
       </c>
       <c r="I109" s="21">
         <f t="shared" si="21"/>
-        <v>607428035.76841235</v>
-      </c>
-      <c r="J109" s="28">
+        <v>564498779.59989834</v>
+      </c>
+      <c r="J109" s="27">
         <f t="shared" si="24"/>
-        <v>13610963351.658808</v>
-      </c>
-      <c r="K109" s="28">
+        <v>11548993654.238956</v>
+      </c>
+      <c r="K109" s="27">
         <f t="shared" si="25"/>
-        <v>10701228631.908615</v>
+        <v>9941811772.9315376</v>
       </c>
       <c r="L109" s="15">
         <f t="shared" si="23"/>
@@ -5402,27 +5383,27 @@
       </c>
       <c r="F110" s="23">
         <f t="shared" si="19"/>
-        <v>13650963351.658808</v>
+        <v>11579993654.238956</v>
       </c>
       <c r="G110" s="25">
         <f t="shared" si="20"/>
-        <v>10731228631.908617</v>
+        <v>9972811772.9315376</v>
       </c>
       <c r="H110" s="21">
         <f t="shared" si="22"/>
-        <v>819057801.09952843</v>
+        <v>694799619.25433731</v>
       </c>
       <c r="I110" s="21">
         <f t="shared" si="21"/>
-        <v>643873717.91451705</v>
-      </c>
-      <c r="J110" s="28">
+        <v>598368706.37589228</v>
+      </c>
+      <c r="J110" s="27">
         <f t="shared" si="24"/>
-        <v>14430021152.758337</v>
-      </c>
-      <c r="K110" s="28">
+        <v>12243793273.493294</v>
+      </c>
+      <c r="K110" s="27">
         <f t="shared" si="25"/>
-        <v>11345102349.823132</v>
+        <v>10540180479.30743</v>
       </c>
       <c r="L110" s="15">
         <f t="shared" si="23"/>
@@ -5446,31 +5427,31 @@
       </c>
       <c r="F111" s="23">
         <f t="shared" si="19"/>
-        <v>14470021152.758337</v>
+        <v>12274793273.493294</v>
       </c>
       <c r="G111" s="25">
         <f t="shared" si="20"/>
-        <v>11375102349.823133</v>
+        <v>10571180479.30743</v>
       </c>
       <c r="H111" s="21">
         <f t="shared" si="22"/>
-        <v>868201269.16550016</v>
+        <v>736487596.40959764</v>
       </c>
       <c r="I111" s="21">
         <f t="shared" si="21"/>
-        <v>682506140.98938799</v>
-      </c>
-      <c r="J111" s="28">
+        <v>634270828.75844574</v>
+      </c>
+      <c r="J111" s="27">
         <f t="shared" si="24"/>
-        <v>15298222421.923838</v>
-      </c>
-      <c r="K111" s="28">
+        <v>12980280869.902891</v>
+      </c>
+      <c r="K111" s="27">
         <f t="shared" si="25"/>
-        <v>12027608490.812519</v>
+        <v>11174451308.065876</v>
       </c>
       <c r="L111" s="15">
         <f t="shared" si="23"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M111" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5490,27 +5471,27 @@
       </c>
       <c r="F112" s="23">
         <f t="shared" si="19"/>
-        <v>15338222421.923838</v>
+        <v>13011280869.902891</v>
       </c>
       <c r="G112" s="25">
         <f t="shared" si="20"/>
-        <v>12057608490.812521</v>
+        <v>11205451308.065876</v>
       </c>
       <c r="H112" s="21">
         <f t="shared" si="22"/>
-        <v>920293345.31543028</v>
+        <v>780676852.19417346</v>
       </c>
       <c r="I112" s="21">
         <f t="shared" si="21"/>
-        <v>723456509.44875121</v>
-      </c>
-      <c r="J112" s="28">
+        <v>672327078.48395252</v>
+      </c>
+      <c r="J112" s="27">
         <f t="shared" si="24"/>
-        <v>16218515767.239267</v>
-      </c>
-      <c r="K112" s="28">
+        <v>13760957722.097065</v>
+      </c>
+      <c r="K112" s="27">
         <f t="shared" si="25"/>
-        <v>12751065000.261271</v>
+        <v>11846778386.549828</v>
       </c>
       <c r="L112" s="15">
         <f t="shared" si="23"/>
@@ -5537,31 +5518,31 @@
       </c>
       <c r="F113" s="23">
         <f t="shared" si="19"/>
-        <v>16258515767.239267</v>
+        <v>13791957722.097065</v>
       </c>
       <c r="G113" s="25">
         <f t="shared" si="20"/>
-        <v>12781065000.261272</v>
+        <v>11877778386.549828</v>
       </c>
       <c r="H113" s="21">
         <f t="shared" si="22"/>
-        <v>975510946.034356</v>
+        <v>827517463.3258239</v>
       </c>
       <c r="I113" s="21">
         <f t="shared" si="21"/>
-        <v>766863900.01567626</v>
-      </c>
-      <c r="J113" s="28">
+        <v>712666703.19298959</v>
+      </c>
+      <c r="J113" s="27">
         <f t="shared" si="24"/>
-        <v>17194026713.273624</v>
-      </c>
-      <c r="K113" s="28">
+        <v>14588475185.42289</v>
+      </c>
+      <c r="K113" s="27">
         <f t="shared" si="25"/>
-        <v>13517928900.276947</v>
+        <v>12559445089.742817</v>
       </c>
       <c r="L113" s="15">
         <f t="shared" si="23"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M113" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5581,31 +5562,31 @@
       </c>
       <c r="F114" s="23">
         <f t="shared" si="19"/>
-        <v>17234026713.273624</v>
+        <v>14619475185.42289</v>
       </c>
       <c r="G114" s="25">
         <f t="shared" si="20"/>
-        <v>13547928900.276949</v>
+        <v>12590445089.742817</v>
       </c>
       <c r="H114" s="21">
         <f t="shared" si="22"/>
-        <v>1034041602.7964175</v>
+        <v>877168511.12537336</v>
       </c>
       <c r="I114" s="21">
         <f t="shared" si="21"/>
-        <v>812875734.01661694</v>
-      </c>
-      <c r="J114" s="28">
+        <v>755426705.38456893</v>
+      </c>
+      <c r="J114" s="27">
         <f t="shared" si="24"/>
-        <v>18228068316.070042</v>
-      </c>
-      <c r="K114" s="28">
+        <v>15465643696.548264</v>
+      </c>
+      <c r="K114" s="27">
         <f t="shared" si="25"/>
-        <v>14330804634.293564</v>
+        <v>13314871795.127386</v>
       </c>
       <c r="L114" s="15">
         <f t="shared" si="23"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M114" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5625,31 +5606,31 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="19"/>
-        <v>18268068316.070042</v>
+        <v>15496643696.548264</v>
       </c>
       <c r="G115" s="25">
         <f t="shared" si="20"/>
-        <v>14360804634.293566</v>
+        <v>13345871795.127386</v>
       </c>
       <c r="H115" s="21">
         <f t="shared" si="22"/>
-        <v>1096084098.9642024</v>
+        <v>929798621.79289579</v>
       </c>
       <c r="I115" s="21">
         <f t="shared" si="21"/>
-        <v>861648278.05761397</v>
-      </c>
-      <c r="J115" s="28">
+        <v>800752307.70764315</v>
+      </c>
+      <c r="J115" s="27">
         <f t="shared" si="24"/>
-        <v>19324152415.034245</v>
-      </c>
-      <c r="K115" s="28">
+        <v>16395442318.34116</v>
+      </c>
+      <c r="K115" s="27">
         <f t="shared" si="25"/>
-        <v>15192452912.351177</v>
+        <v>14115624102.83503</v>
       </c>
       <c r="L115" s="15">
         <f t="shared" si="23"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M115" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5669,27 +5650,27 @@
       </c>
       <c r="F116" s="23">
         <f t="shared" si="19"/>
-        <v>19364152415.034245</v>
+        <v>16426442318.34116</v>
       </c>
       <c r="G116" s="25">
         <f t="shared" si="20"/>
-        <v>15222452912.351179</v>
+        <v>14146624102.83503</v>
       </c>
       <c r="H116" s="21">
         <f t="shared" si="22"/>
-        <v>1161849144.9020545</v>
+        <v>985586539.10046959</v>
       </c>
       <c r="I116" s="21">
         <f t="shared" si="21"/>
-        <v>913347174.74107075</v>
-      </c>
-      <c r="J116" s="28">
+        <v>848797446.17010176</v>
+      </c>
+      <c r="J116" s="27">
         <f t="shared" si="24"/>
-        <v>20486001559.936298</v>
-      </c>
-      <c r="K116" s="28">
+        <v>17381028857.441628</v>
+      </c>
+      <c r="K116" s="27">
         <f t="shared" si="25"/>
-        <v>16105800087.092247</v>
+        <v>14964421549.005131</v>
       </c>
       <c r="L116" s="15">
         <f t="shared" si="23"/>
@@ -5713,27 +5694,27 @@
       </c>
       <c r="F117" s="23">
         <f t="shared" si="19"/>
-        <v>20526001559.936298</v>
+        <v>17412028857.441628</v>
       </c>
       <c r="G117" s="25">
         <f t="shared" si="20"/>
-        <v>16135800087.092251</v>
+        <v>14995421549.005131</v>
       </c>
       <c r="H117" s="21">
         <f t="shared" si="22"/>
-        <v>1231560093.5961778</v>
+        <v>1044721731.4464976</v>
       </c>
       <c r="I117" s="21">
         <f t="shared" si="21"/>
-        <v>968148005.22553504</v>
-      </c>
-      <c r="J117" s="28">
+        <v>899725292.94030786</v>
+      </c>
+      <c r="J117" s="27">
         <f t="shared" si="24"/>
-        <v>21717561653.532475</v>
-      </c>
-      <c r="K117" s="28">
+        <v>18425750588.888126</v>
+      </c>
+      <c r="K117" s="27">
         <f t="shared" si="25"/>
-        <v>17073948092.317781</v>
+        <v>15864146841.945438</v>
       </c>
       <c r="L117" s="15">
         <f t="shared" si="23"/>
@@ -5757,27 +5738,27 @@
       </c>
       <c r="F118" s="23">
         <f t="shared" si="19"/>
-        <v>21757561653.532475</v>
+        <v>18456750588.888126</v>
       </c>
       <c r="G118" s="25">
         <f t="shared" si="20"/>
-        <v>17103948092.317785</v>
+        <v>15895146841.945438</v>
       </c>
       <c r="H118" s="21">
         <f t="shared" si="22"/>
-        <v>1305453699.2119484</v>
+        <v>1107405035.3332875</v>
       </c>
       <c r="I118" s="21">
         <f t="shared" si="21"/>
-        <v>1026236885.539067</v>
-      </c>
-      <c r="J118" s="28">
+        <v>953708810.51672626</v>
+      </c>
+      <c r="J118" s="27">
         <f t="shared" si="24"/>
-        <v>23023015352.744423</v>
-      </c>
-      <c r="K118" s="28">
+        <v>19533155624.221413</v>
+      </c>
+      <c r="K118" s="27">
         <f t="shared" si="25"/>
-        <v>18100184977.85685</v>
+        <v>16817855652.462164</v>
       </c>
       <c r="L118" s="15">
         <f t="shared" si="23"/>
@@ -5801,31 +5782,31 @@
       </c>
       <c r="F119" s="23">
         <f t="shared" si="19"/>
-        <v>23063015352.744423</v>
+        <v>19564155624.221413</v>
       </c>
       <c r="G119" s="25">
         <f t="shared" si="20"/>
-        <v>18130184977.856853</v>
+        <v>16848855652.462164</v>
       </c>
       <c r="H119" s="21">
         <f t="shared" si="22"/>
-        <v>1383780921.1646652</v>
+        <v>1173849337.4532847</v>
       </c>
       <c r="I119" s="21">
         <f t="shared" si="21"/>
-        <v>1087811098.6714113</v>
-      </c>
-      <c r="J119" s="28">
+        <v>1010931339.1477298</v>
+      </c>
+      <c r="J119" s="27">
         <f t="shared" si="24"/>
-        <v>24406796273.909088</v>
-      </c>
-      <c r="K119" s="28">
+        <v>20707004961.674698</v>
+      </c>
+      <c r="K119" s="27">
         <f t="shared" si="25"/>
-        <v>19187996076.528259</v>
+        <v>17828786991.609894</v>
       </c>
       <c r="L119" s="15">
         <f t="shared" si="23"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M119" s="13" t="str">
         <f t="shared" si="17"/>
@@ -5845,27 +5826,27 @@
       </c>
       <c r="F120" s="23">
         <f t="shared" si="19"/>
-        <v>24446796273.909088</v>
+        <v>20738004961.674698</v>
       </c>
       <c r="G120" s="25">
         <f t="shared" si="20"/>
-        <v>19217996076.528263</v>
+        <v>17859786991.609894</v>
       </c>
       <c r="H120" s="21">
         <f t="shared" si="22"/>
-        <v>1466807776.4345453</v>
+        <v>1244280297.7004819</v>
       </c>
       <c r="I120" s="21">
         <f t="shared" si="21"/>
-        <v>1153079764.5916958</v>
-      </c>
-      <c r="J120" s="28">
+        <v>1071587219.4965936</v>
+      </c>
+      <c r="J120" s="27">
         <f t="shared" si="24"/>
-        <v>25873604050.343632</v>
-      </c>
-      <c r="K120" s="28">
+        <v>21951285259.375179</v>
+      </c>
+      <c r="K120" s="27">
         <f t="shared" si="25"/>
-        <v>20341075841.119957</v>
+        <v>18900374211.106487</v>
       </c>
       <c r="L120" s="15">
         <f t="shared" si="23"/>
@@ -5889,27 +5870,27 @@
       </c>
       <c r="F121" s="23">
         <f t="shared" si="19"/>
-        <v>25913604050.343632</v>
+        <v>21982285259.375179</v>
       </c>
       <c r="G121" s="25">
         <f t="shared" si="20"/>
-        <v>20371075841.119957</v>
+        <v>18931374211.106487</v>
       </c>
       <c r="H121" s="21">
         <f t="shared" si="22"/>
-        <v>1554816243.020618</v>
+        <v>1318937115.5625107</v>
       </c>
       <c r="I121" s="21">
         <f t="shared" si="21"/>
-        <v>1222264550.4671974</v>
-      </c>
-      <c r="J121" s="28">
+        <v>1135882452.6663892</v>
+      </c>
+      <c r="J121" s="27">
         <f t="shared" si="24"/>
-        <v>27428420293.36425</v>
-      </c>
-      <c r="K121" s="28">
+        <v>23270222374.937691</v>
+      </c>
+      <c r="K121" s="27">
         <f t="shared" si="25"/>
-        <v>21563340391.587154</v>
+        <v>20036256663.772877</v>
       </c>
       <c r="L121" s="15">
         <f t="shared" si="23"/>
@@ -5933,27 +5914,27 @@
       </c>
       <c r="F122" s="23">
         <f t="shared" si="19"/>
-        <v>27468420293.36425</v>
+        <v>23301222374.937691</v>
       </c>
       <c r="G122" s="25">
         <f t="shared" si="20"/>
-        <v>21593340391.587154</v>
+        <v>20067256663.772877</v>
       </c>
       <c r="H122" s="21">
         <f t="shared" si="22"/>
-        <v>1648105217.601855</v>
+        <v>1398073342.4962614</v>
       </c>
       <c r="I122" s="21">
         <f t="shared" si="21"/>
-        <v>1295600423.4952292</v>
-      </c>
-      <c r="J122" s="28">
+        <v>1204035399.8263726</v>
+      </c>
+      <c r="J122" s="27">
         <f t="shared" si="24"/>
-        <v>29076525510.966106</v>
-      </c>
-      <c r="K122" s="28">
+        <v>24668295717.433952</v>
+      </c>
+      <c r="K122" s="27">
         <f t="shared" si="25"/>
-        <v>22858940815.082382</v>
+        <v>21240292063.599251</v>
       </c>
       <c r="L122" s="15">
         <f t="shared" si="23"/>
@@ -5977,31 +5958,31 @@
       </c>
       <c r="F123" s="23">
         <f t="shared" si="19"/>
-        <v>29116525510.966106</v>
+        <v>24699295717.433952</v>
       </c>
       <c r="G123" s="25">
         <f t="shared" si="20"/>
-        <v>22888940815.082382</v>
+        <v>21271292063.599251</v>
       </c>
       <c r="H123" s="21">
         <f t="shared" si="22"/>
-        <v>1746991530.6579664</v>
+        <v>1481957743.0460372</v>
       </c>
       <c r="I123" s="21">
         <f t="shared" si="21"/>
-        <v>1373336448.904943</v>
-      </c>
-      <c r="J123" s="28">
+        <v>1276277523.8159549</v>
+      </c>
+      <c r="J123" s="27">
         <f t="shared" si="24"/>
-        <v>30823517041.624073</v>
-      </c>
-      <c r="K123" s="28">
+        <v>26150253460.479988</v>
+      </c>
+      <c r="K123" s="27">
         <f t="shared" si="25"/>
-        <v>24232277263.987324</v>
+        <v>22516569587.415207</v>
       </c>
       <c r="L123" s="15">
         <f t="shared" si="23"/>
-        <v>6.0000000000000005E-2</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M123" s="13" t="str">
         <f t="shared" si="17"/>
@@ -6021,27 +6002,27 @@
       </c>
       <c r="F124" s="23">
         <f t="shared" si="19"/>
-        <v>30863517041.624073</v>
+        <v>26181253460.479988</v>
       </c>
       <c r="G124" s="25">
         <f t="shared" si="20"/>
-        <v>24262277263.987324</v>
+        <v>22547569587.415207</v>
       </c>
       <c r="H124" s="21">
         <f t="shared" si="22"/>
-        <v>1851811022.4974444</v>
+        <v>1570875207.6287992</v>
       </c>
       <c r="I124" s="21">
         <f t="shared" si="21"/>
-        <v>1455736635.8392394</v>
-      </c>
-      <c r="J124" s="28">
+        <v>1352854175.2449124</v>
+      </c>
+      <c r="J124" s="27">
         <f t="shared" si="24"/>
-        <v>32675328064.121517</v>
-      </c>
-      <c r="K124" s="28">
+        <v>27721128668.108788</v>
+      </c>
+      <c r="K124" s="27">
         <f t="shared" si="25"/>
-        <v>25688013899.826565</v>
+        <v>23869423762.660118</v>
       </c>
       <c r="L124" s="15">
         <f t="shared" si="23"/>
@@ -6068,27 +6049,27 @@
       </c>
       <c r="F125" s="23">
         <f t="shared" si="19"/>
-        <v>32715328064.121517</v>
+        <v>27752128668.108788</v>
       </c>
       <c r="G125" s="25">
         <f t="shared" si="20"/>
-        <v>25718013899.826565</v>
+        <v>23900423762.660118</v>
       </c>
       <c r="H125" s="21">
         <f t="shared" si="22"/>
-        <v>1962919683.847291</v>
+        <v>1665127720.0865271</v>
       </c>
       <c r="I125" s="21">
         <f t="shared" si="21"/>
-        <v>1543080833.9895937</v>
-      </c>
-      <c r="J125" s="28">
+        <v>1434025425.7596071</v>
+      </c>
+      <c r="J125" s="27">
         <f t="shared" si="24"/>
-        <v>34638247747.968811</v>
-      </c>
-      <c r="K125" s="28">
+        <v>29386256388.195316</v>
+      </c>
+      <c r="K125" s="27">
         <f t="shared" si="25"/>
-        <v>27231094733.816158</v>
+        <v>25303449188.419724</v>
       </c>
       <c r="L125" s="15">
         <f t="shared" si="23"/>
@@ -6112,27 +6093,27 @@
       </c>
       <c r="F126" s="23">
         <f t="shared" si="19"/>
-        <v>34678247747.968811</v>
+        <v>29417256388.195316</v>
       </c>
       <c r="G126" s="25">
         <f t="shared" si="20"/>
-        <v>27261094733.816158</v>
+        <v>25334449188.419724</v>
       </c>
       <c r="H126" s="21">
         <f t="shared" si="22"/>
-        <v>2080694864.8781285</v>
+        <v>1765035383.291719</v>
       </c>
       <c r="I126" s="21">
         <f t="shared" si="21"/>
-        <v>1635665684.0289695</v>
-      </c>
-      <c r="J126" s="28">
+        <v>1520066951.3051834</v>
+      </c>
+      <c r="J126" s="27">
         <f t="shared" si="24"/>
-        <v>36718942612.846939</v>
-      </c>
-      <c r="K126" s="28">
+        <v>31151291771.487034</v>
+      </c>
+      <c r="K126" s="27">
         <f t="shared" si="25"/>
-        <v>28866760417.845127</v>
+        <v>26823516139.724907</v>
       </c>
       <c r="L126" s="15">
         <f t="shared" si="23"/>
@@ -6156,27 +6137,27 @@
       </c>
       <c r="F127" s="23">
         <f t="shared" si="19"/>
-        <v>36758942612.846939</v>
+        <v>31182291771.487034</v>
       </c>
       <c r="G127" s="25">
         <f t="shared" si="20"/>
-        <v>28896760417.845127</v>
+        <v>26854516139.724907</v>
       </c>
       <c r="H127" s="21">
         <f t="shared" si="22"/>
-        <v>2205536556.7708163</v>
+        <v>1870937506.289222</v>
       </c>
       <c r="I127" s="21">
         <f t="shared" si="21"/>
-        <v>1733805625.0707076</v>
-      </c>
-      <c r="J127" s="28">
+        <v>1611270968.3834944</v>
+      </c>
+      <c r="J127" s="27">
         <f t="shared" si="24"/>
-        <v>38924479169.617752</v>
-      </c>
-      <c r="K127" s="28">
+        <v>33022229277.776257</v>
+      </c>
+      <c r="K127" s="27">
         <f t="shared" si="25"/>
-        <v>30600566042.915836</v>
+        <v>28434787108.108402</v>
       </c>
       <c r="L127" s="15">
         <f t="shared" si="23"/>
@@ -6200,27 +6181,27 @@
       </c>
       <c r="F128" s="23">
         <f t="shared" si="19"/>
-        <v>38964479169.617752</v>
+        <v>33053229277.776257</v>
       </c>
       <c r="G128" s="25">
         <f t="shared" si="20"/>
-        <v>30630566042.915836</v>
+        <v>28465787108.108402</v>
       </c>
       <c r="H128" s="21">
         <f t="shared" si="22"/>
-        <v>2337868750.1770649</v>
+        <v>1983193756.6665754</v>
       </c>
       <c r="I128" s="21">
         <f t="shared" si="21"/>
-        <v>1837833962.5749502</v>
-      </c>
-      <c r="J128" s="28">
+        <v>1707947226.4865041</v>
+      </c>
+      <c r="J128" s="27">
         <f t="shared" si="24"/>
-        <v>41262347919.794815</v>
-      </c>
-      <c r="K128" s="28">
+        <v>35005423034.442833</v>
+      </c>
+      <c r="K128" s="27">
         <f t="shared" si="25"/>
-        <v>32438400005.490788</v>
+        <v>30142734334.594906</v>
       </c>
       <c r="L128" s="15">
         <f t="shared" si="23"/>
@@ -6244,27 +6225,27 @@
       </c>
       <c r="F129" s="23">
         <f t="shared" si="19"/>
-        <v>41302347919.794815</v>
+        <v>35036423034.442833</v>
       </c>
       <c r="G129" s="25">
         <f t="shared" si="20"/>
-        <v>32468400005.490788</v>
+        <v>30173734334.594906</v>
       </c>
       <c r="H129" s="21">
         <f t="shared" si="22"/>
-        <v>2478140875.1876888</v>
+        <v>2102185382.0665698</v>
       </c>
       <c r="I129" s="21">
         <f t="shared" si="21"/>
-        <v>1948104000.3294473</v>
-      </c>
-      <c r="J129" s="28">
+        <v>1810424060.0756943</v>
+      </c>
+      <c r="J129" s="27">
         <f t="shared" si="24"/>
-        <v>43740488794.982506</v>
-      </c>
-      <c r="K129" s="28">
+        <v>37107608416.509399</v>
+      </c>
+      <c r="K129" s="27">
         <f t="shared" si="25"/>
-        <v>34386504005.820236</v>
+        <v>31953158394.670601</v>
       </c>
       <c r="L129" s="15">
         <f t="shared" si="23"/>
@@ -6288,31 +6269,31 @@
       </c>
       <c r="F130" s="23">
         <f t="shared" si="19"/>
-        <v>43780488794.982506</v>
+        <v>37138608416.509399</v>
       </c>
       <c r="G130" s="25">
         <f t="shared" si="20"/>
-        <v>34416504005.820236</v>
+        <v>31984158394.670601</v>
       </c>
       <c r="H130" s="21">
         <f t="shared" si="22"/>
-        <v>2626829327.6989503</v>
+        <v>2228316504.9905639</v>
       </c>
       <c r="I130" s="21">
         <f t="shared" si="21"/>
-        <v>2064990240.3492141</v>
-      </c>
-      <c r="J130" s="28">
+        <v>1919049503.6802361</v>
+      </c>
+      <c r="J130" s="27">
         <f t="shared" si="24"/>
-        <v>46367318122.681458</v>
-      </c>
-      <c r="K130" s="28">
+        <v>39335924921.499962</v>
+      </c>
+      <c r="K130" s="27">
         <f t="shared" si="25"/>
-        <v>36451494246.169449</v>
+        <v>33872207898.350838</v>
       </c>
       <c r="L130" s="15">
         <f t="shared" si="23"/>
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M130" s="13" t="str">
         <f t="shared" si="17"/>
@@ -6332,27 +6313,27 @@
       </c>
       <c r="F131" s="23">
         <f t="shared" si="19"/>
-        <v>46407318122.681458</v>
+        <v>39366924921.499962</v>
       </c>
       <c r="G131" s="25">
         <f t="shared" si="20"/>
-        <v>36481494246.169449</v>
+        <v>33903207898.350838</v>
       </c>
       <c r="H131" s="21">
         <f t="shared" si="22"/>
-        <v>2784439087.3608875</v>
+        <v>2362015495.2899976</v>
       </c>
       <c r="I131" s="21">
         <f t="shared" si="21"/>
-        <v>2188889654.7701669</v>
-      </c>
-      <c r="J131" s="28">
+        <v>2034192473.9010501</v>
+      </c>
+      <c r="J131" s="27">
         <f t="shared" si="24"/>
-        <v>49151757210.042343</v>
-      </c>
-      <c r="K131" s="28">
+        <v>41697940416.789963</v>
+      </c>
+      <c r="K131" s="27">
         <f t="shared" si="25"/>
-        <v>38640383900.939613</v>
+        <v>35906400372.251884</v>
       </c>
       <c r="L131" s="15">
         <f t="shared" si="23"/>
@@ -6376,31 +6357,31 @@
       </c>
       <c r="F132" s="23">
         <f t="shared" si="19"/>
-        <v>49191757210.042343</v>
+        <v>41728940416.789963</v>
       </c>
       <c r="G132" s="25">
         <f t="shared" si="20"/>
-        <v>38670383900.939613</v>
+        <v>35937400372.251884</v>
       </c>
       <c r="H132" s="21">
         <f t="shared" si="22"/>
-        <v>2951505432.6025405</v>
+        <v>2503736425.0073977</v>
       </c>
       <c r="I132" s="21">
         <f t="shared" si="21"/>
-        <v>2320223034.0563769</v>
-      </c>
-      <c r="J132" s="28">
+        <v>2156244022.335113</v>
+      </c>
+      <c r="J132" s="27">
         <f t="shared" si="24"/>
-        <v>52103262642.644882</v>
-      </c>
-      <c r="K132" s="28">
+        <v>44201676841.797363</v>
+      </c>
+      <c r="K132" s="27">
         <f t="shared" si="25"/>
-        <v>40960606934.995987</v>
+        <v>38062644394.586998</v>
       </c>
       <c r="L132" s="15">
         <f t="shared" si="23"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M132" s="13" t="str">
         <f t="shared" si="17"/>
@@ -6420,31 +6401,31 @@
       </c>
       <c r="F133" s="23">
         <f t="shared" si="19"/>
-        <v>52143262642.644882</v>
+        <v>44232676841.797363</v>
       </c>
       <c r="G133" s="25">
         <f t="shared" si="20"/>
-        <v>40990606934.995987</v>
+        <v>38093644394.586998</v>
       </c>
       <c r="H133" s="21">
         <f t="shared" si="22"/>
-        <v>3128595758.5586929</v>
+        <v>2653960610.5078416</v>
       </c>
       <c r="I133" s="21">
         <f t="shared" si="21"/>
-        <v>2459436416.0997591</v>
-      </c>
-      <c r="J133" s="28">
+        <v>2285618663.67522</v>
+      </c>
+      <c r="J133" s="27">
         <f t="shared" si="24"/>
-        <v>55231858401.203575</v>
-      </c>
-      <c r="K133" s="28">
+        <v>46855637452.305206</v>
+      </c>
+      <c r="K133" s="27">
         <f t="shared" si="25"/>
-        <v>43420043351.095749</v>
+        <v>40348263058.262215</v>
       </c>
       <c r="L133" s="15">
         <f t="shared" si="23"/>
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M133" s="13" t="str">
         <f t="shared" si="17"/>
@@ -6464,27 +6445,27 @@
       </c>
       <c r="F134" s="23">
         <f t="shared" si="19"/>
-        <v>55271858401.203575</v>
+        <v>46886637452.305206</v>
       </c>
       <c r="G134" s="25">
         <f t="shared" si="20"/>
-        <v>43450043351.095749</v>
+        <v>40379263058.262215</v>
       </c>
       <c r="H134" s="21">
         <f t="shared" si="22"/>
-        <v>3316311504.0722146</v>
+        <v>2813198247.1383123</v>
       </c>
       <c r="I134" s="21">
         <f t="shared" si="21"/>
-        <v>2607002601.0657449</v>
-      </c>
-      <c r="J134" s="28">
+        <v>2422755783.4957328</v>
+      </c>
+      <c r="J134" s="27">
         <f t="shared" si="24"/>
-        <v>58548169905.275787</v>
-      </c>
-      <c r="K134" s="28">
+        <v>49668835699.44352</v>
+      </c>
+      <c r="K134" s="27">
         <f t="shared" si="25"/>
-        <v>46027045952.161491</v>
+        <v>42771018841.75795</v>
       </c>
       <c r="L134" s="15">
         <f t="shared" si="23"/>
@@ -6508,31 +6489,31 @@
       </c>
       <c r="F135" s="23">
         <f t="shared" si="19"/>
-        <v>58588169905.275787</v>
+        <v>49699835699.44352</v>
       </c>
       <c r="G135" s="25">
         <f t="shared" si="20"/>
-        <v>46057045952.161491</v>
+        <v>42802018841.75795</v>
       </c>
       <c r="H135" s="21">
         <f t="shared" si="22"/>
-        <v>3515290194.3165469</v>
+        <v>2981990141.9666109</v>
       </c>
       <c r="I135" s="21">
         <f t="shared" si="21"/>
-        <v>2763422757.1296892</v>
-      </c>
-      <c r="J135" s="28">
+        <v>2568121130.505477</v>
+      </c>
+      <c r="J135" s="27">
         <f t="shared" si="24"/>
-        <v>62063460099.592331</v>
-      </c>
-      <c r="K135" s="28">
+        <v>52650825841.410133</v>
+      </c>
+      <c r="K135" s="27">
         <f t="shared" si="25"/>
-        <v>48790468709.291183</v>
+        <v>45339139972.263428</v>
       </c>
       <c r="L135" s="15">
         <f t="shared" si="23"/>
-        <v>5.9999999999999991E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M135" s="13" t="str">
         <f t="shared" ref="M135:M137" si="26">IF(I135-(F$1*G135)&gt;=0,"TRUE","FALSE")</f>
@@ -6552,27 +6533,27 @@
       </c>
       <c r="F136" s="23">
         <f t="shared" ref="F136:F137" si="28">F135+D136+H135</f>
-        <v>62103460099.592331</v>
+        <v>52681825841.410133</v>
       </c>
       <c r="G136" s="25">
         <f t="shared" ref="G136:G137" si="29">G135+E136+I135</f>
-        <v>48820468709.291183</v>
+        <v>45370139972.263428</v>
       </c>
       <c r="H136" s="21">
         <f t="shared" si="22"/>
-        <v>3726207605.9755397</v>
+        <v>3160909550.4846077</v>
       </c>
       <c r="I136" s="21">
         <f t="shared" si="21"/>
-        <v>2929228122.5574708</v>
-      </c>
-      <c r="J136" s="28">
+        <v>2722208398.3358054</v>
+      </c>
+      <c r="J136" s="27">
         <f t="shared" si="24"/>
-        <v>65789667705.567871</v>
-      </c>
-      <c r="K136" s="28">
+        <v>55811735391.894745</v>
+      </c>
+      <c r="K136" s="27">
         <f t="shared" si="25"/>
-        <v>51719696831.848656</v>
+        <v>48061348370.599236</v>
       </c>
       <c r="L136" s="15">
         <f t="shared" si="23"/>
@@ -6599,31 +6580,31 @@
       </c>
       <c r="F137" s="23">
         <f t="shared" si="28"/>
-        <v>65829667705.567871</v>
+        <v>55842735391.894745</v>
       </c>
       <c r="G137" s="25">
         <f t="shared" si="29"/>
-        <v>51749696831.848656</v>
+        <v>48092348370.599236</v>
       </c>
       <c r="H137" s="21">
         <f t="shared" si="22"/>
-        <v>3949780062.3340721</v>
+        <v>3350564123.5136847</v>
       </c>
       <c r="I137" s="21">
         <f t="shared" si="21"/>
-        <v>3104981809.9109192</v>
-      </c>
-      <c r="J137" s="28">
+        <v>2885540902.2359538</v>
+      </c>
+      <c r="J137" s="27">
         <f t="shared" si="24"/>
-        <v>69739447767.901947</v>
-      </c>
-      <c r="K137" s="28">
+        <v>59162299515.408432</v>
+      </c>
+      <c r="K137" s="27">
         <f t="shared" si="25"/>
-        <v>54824678641.759575</v>
+        <v>50946889272.83519</v>
       </c>
       <c r="L137" s="15">
         <f t="shared" si="23"/>
-        <v>0.06</v>
+        <v>5.9999999999999991E-2</v>
       </c>
       <c r="M137" s="13" t="str">
         <f t="shared" si="26"/>
